--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,16 +383,16 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="2">
@@ -410,24 +410,24 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D2" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="3">
@@ -437,24 +437,24 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="4">
@@ -470,18 +470,18 @@
         <v>90</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>50</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1500</v>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="6">
@@ -518,24 +518,24 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="7">
@@ -545,24 +545,24 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="8">
@@ -572,24 +572,24 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="9">
@@ -599,24 +599,24 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="10">
@@ -626,24 +626,24 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="11">
@@ -653,24 +653,24 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D11" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="12">
@@ -680,24 +680,24 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D12" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="13">
@@ -707,24 +707,24 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="14">
@@ -734,24 +734,24 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="15">
@@ -761,24 +761,24 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D15" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="16">
@@ -788,24 +788,24 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="17">
@@ -818,13 +818,13 @@
         <v>50</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="18">
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1500</v>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="19">
@@ -869,24 +869,24 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="20">
@@ -896,24 +896,24 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="21">
@@ -923,24 +923,24 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="22">
@@ -953,13 +953,13 @@
         <v>50</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="23">
@@ -977,24 +977,24 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="24">
@@ -1004,24 +1004,24 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="25">
@@ -1031,24 +1031,24 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="26">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>650</v>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="27">
@@ -1091,10 +1091,10 @@
         <v>60</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="28">
@@ -1115,13 +1115,13 @@
         <v>50</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="29">
@@ -1142,21 +1142,21 @@
         <v>50</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="30">
@@ -1169,13 +1169,13 @@
         <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="31">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="32">
@@ -1220,24 +1220,24 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.383671261070052</v>
       </c>
     </row>
     <row r="33">
@@ -1247,24 +1247,24 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.365503982143032</v>
       </c>
     </row>
     <row r="34">
@@ -1274,24 +1274,24 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>750</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="35">
@@ -1301,24 +1301,24 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="36">
@@ -1328,24 +1328,24 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D36" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E36" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="37">
@@ -1355,24 +1355,24 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="38">
@@ -1382,24 +1382,24 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="39">
@@ -1409,24 +1409,24 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="40">
@@ -1436,24 +1436,24 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="41">
@@ -1463,24 +1463,24 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="42">
@@ -1490,24 +1490,24 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="43">
@@ -1517,24 +1517,24 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.364595632631271</v>
       </c>
     </row>
     <row r="44">
@@ -1544,24 +1544,24 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.359769420955442</v>
       </c>
     </row>
     <row r="45">
@@ -1571,24 +1571,24 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.350050452418586</v>
       </c>
     </row>
     <row r="46">
@@ -1598,24 +1598,24 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.340775305758267</v>
       </c>
     </row>
     <row r="47">
@@ -1625,24 +1625,24 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.340775305758267</v>
       </c>
     </row>
     <row r="48">
@@ -1655,13 +1655,13 @@
         <v>40</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.332593147706533</v>
       </c>
     </row>
     <row r="49">
@@ -1679,24 +1679,24 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.332593147706533</v>
       </c>
     </row>
     <row r="50">
@@ -1706,24 +1706,24 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.296925078127139</v>
       </c>
     </row>
     <row r="51">
@@ -1733,24 +1733,24 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.296925078127139</v>
       </c>
     </row>
     <row r="52">
@@ -1760,24 +1760,24 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.296925078127139</v>
       </c>
     </row>
     <row r="53">
@@ -1787,24 +1787,24 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.296925078127139</v>
       </c>
     </row>
     <row r="54">
@@ -1814,16 +1814,16 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C54" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D54" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.289855102988091</v>
       </c>
     </row>
     <row r="55">
@@ -1841,24 +1841,24 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.289855102988091</v>
       </c>
     </row>
     <row r="56">
@@ -1868,24 +1868,24 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.268764415309547</v>
       </c>
     </row>
     <row r="57">
@@ -1895,24 +1895,24 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.25618815980645</v>
       </c>
     </row>
     <row r="58">
@@ -1922,24 +1922,24 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.25618815980645</v>
       </c>
     </row>
     <row r="59">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.25618815980645</v>
       </c>
     </row>
     <row r="60">
@@ -1976,24 +1976,24 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.145080399756427</v>
       </c>
     </row>
     <row r="61">
@@ -2003,16 +2003,16 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.145080399756427</v>
       </c>
     </row>
     <row r="62">
@@ -2030,16 +2030,16 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.141877967198331</v>
       </c>
     </row>
     <row r="63">
@@ -2057,24 +2057,24 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="D63" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.141877967198331</v>
       </c>
     </row>
     <row r="64">
@@ -2084,24 +2084,24 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.141572062728583</v>
       </c>
     </row>
     <row r="65">
@@ -2111,24 +2111,24 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.141572062728583</v>
       </c>
     </row>
     <row r="66">
@@ -2138,24 +2138,24 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.141572062728583</v>
       </c>
     </row>
     <row r="67">
@@ -2168,10 +2168,10 @@
         <v>20</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>1500</v>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.141572062728583</v>
       </c>
     </row>
     <row r="68">
@@ -2192,24 +2192,24 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="D68" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E68" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
           <t>6month charter</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.126695552662364</v>
       </c>
     </row>
     <row r="69">
@@ -2219,24 +2219,24 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.104789417486934</v>
       </c>
     </row>
     <row r="70">
@@ -2246,24 +2246,24 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.104789417486934</v>
       </c>
     </row>
     <row r="71">
@@ -2273,24 +2273,24 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.104789417486934</v>
       </c>
     </row>
     <row r="72">
@@ -2300,16 +2300,16 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.104789417486934</v>
       </c>
     </row>
     <row r="73">
@@ -2327,16 +2327,16 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.104789417486934</v>
       </c>
     </row>
     <row r="74">
@@ -2354,16 +2354,16 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.09410670611557</v>
       </c>
     </row>
     <row r="75">
@@ -2381,16 +2381,16 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.065652637554499</v>
       </c>
     </row>
     <row r="76">
@@ -2408,16 +2408,16 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="77">
@@ -2435,24 +2435,24 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="78">
@@ -2462,24 +2462,24 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="79">
@@ -2489,16 +2489,16 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="80">
@@ -2516,24 +2516,24 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E80" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="81">
@@ -2543,16 +2543,16 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="82">
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>500</v>
@@ -2583,11 +2583,11 @@
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="83">
@@ -2597,24 +2597,24 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="84">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="85">
@@ -2651,16 +2651,16 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="86">
@@ -2678,24 +2678,24 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="87">
@@ -2705,24 +2705,24 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="88">
@@ -2732,24 +2732,24 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="89">
@@ -2759,16 +2759,16 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>3.595095258731986</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="90">
@@ -2786,24 +2786,24 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>3.584506522562669</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="91">
@@ -2813,24 +2813,24 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>3.584506522562669</v>
+        <v>1.036509744375926</v>
       </c>
     </row>
     <row r="92">
@@ -2840,24 +2840,24 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.9282177406053573</v>
       </c>
     </row>
     <row r="93">
@@ -2867,24 +2867,24 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.9282177406053573</v>
       </c>
     </row>
     <row r="94">
@@ -2894,16 +2894,16 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.9050272975744202</v>
       </c>
     </row>
     <row r="95">
@@ -2921,24 +2921,24 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.8605836072615564</v>
       </c>
     </row>
     <row r="96">
@@ -2948,24 +2948,24 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.8605836072615564</v>
       </c>
     </row>
     <row r="97">
@@ -2975,24 +2975,24 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.8605836072615564</v>
       </c>
     </row>
     <row r="98">
@@ -3002,24 +3002,24 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.8605836072615564</v>
       </c>
     </row>
     <row r="99">
@@ -3029,24 +3029,24 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.7878265001310369</v>
       </c>
     </row>
     <row r="100">
@@ -3056,24 +3056,24 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>0.7878265001310369</v>
       </c>
     </row>
     <row r="101">
@@ -3083,24 +3083,24 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D101" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E101" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E101" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G101" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="102">
@@ -3110,24 +3110,24 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G102" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="103">
@@ -3137,24 +3137,24 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G103" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="104">
@@ -3164,24 +3164,24 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G104" s="0" t="n">
-        <v>3.577678958072192</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="105">
@@ -3191,24 +3191,24 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G105" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="106">
@@ -3218,24 +3218,24 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G106" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="107">
@@ -3245,24 +3245,24 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G107" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="108">
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C108" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C108" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D108" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G108" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="109">
@@ -3299,24 +3299,24 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G109" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="110">
@@ -3326,24 +3326,24 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C110" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D110" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G110" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="111">
@@ -3353,24 +3353,24 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G111" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="112">
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G112" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="113">
@@ -3407,24 +3407,24 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G113" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="114">
@@ -3434,24 +3434,24 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G114" s="0" t="n">
-        <v>3.544708491200584</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="115">
@@ -3461,24 +3461,24 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G115" s="0" t="n">
-        <v>3.541137856834176</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="116">
@@ -3488,24 +3488,24 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F116" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G116" s="0" t="n">
-        <v>3.516558033742929</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="117">
@@ -3515,24 +3515,24 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G117" s="0" t="n">
-        <v>3.516558033742929</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="118">
@@ -3542,24 +3542,24 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G118" s="0" t="n">
-        <v>3.513279129539219</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="119">
@@ -3569,24 +3569,24 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G119" s="0" t="n">
-        <v>3.513279129539219</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="120">
@@ -3596,24 +3596,24 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F120" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G120" s="0" t="n">
-        <v>3.495658767250293</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="121">
@@ -3623,24 +3623,24 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G121" s="0" t="n">
-        <v>3.495658767250293</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="122">
@@ -3653,21 +3653,21 @@
         <v>40</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G122" s="0" t="n">
-        <v>3.491348840707861</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="123">
@@ -3680,21 +3680,21 @@
         <v>40</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G123" s="0" t="n">
-        <v>3.451328192025966</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="124">
@@ -3704,24 +3704,24 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F124" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G124" s="0" t="n">
-        <v>3.451328192025966</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="125">
@@ -3731,24 +3731,24 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F125" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G125" s="0" t="n">
-        <v>3.385780692680615</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="126">
@@ -3758,24 +3758,24 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G126" s="0" t="n">
-        <v>3.385780692680615</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="127">
@@ -3785,24 +3785,24 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G127" s="0" t="n">
-        <v>3.385780692680615</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="128">
@@ -3812,24 +3812,24 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="F128" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G128" s="0" t="n">
-        <v>3.385780692680615</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="129">
@@ -3839,24 +3839,24 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G129" s="0" t="n">
-        <v>3.385780692680615</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="130">
@@ -3866,24 +3866,24 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G130" s="0" t="n">
-        <v>3.385780692680615</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="131">
@@ -3893,24 +3893,24 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G131" s="0" t="n">
-        <v>3.280429935007731</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="132">
@@ -3920,24 +3920,24 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="F132" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G132" s="0" t="n">
-        <v>3.280429935007731</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="133">
@@ -3947,24 +3947,24 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G133" s="0" t="n">
-        <v>3.274508936022156</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="134">
@@ -3974,24 +3974,24 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G134" s="0" t="n">
-        <v>3.27200272290793</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="135">
@@ -4001,24 +4001,24 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G135" s="0" t="n">
-        <v>3.27200272290793</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="136">
@@ -4028,24 +4028,24 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F136" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G136" s="0" t="n">
-        <v>3.267432854942232</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="137">
@@ -4055,24 +4055,24 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G137" s="0" t="n">
-        <v>3.200901844732711</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="138">
@@ -4082,24 +4082,24 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G138" s="0" t="n">
-        <v>3.200901844732711</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="139">
@@ -4109,24 +4109,24 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G139" s="0" t="n">
-        <v>3.197835943236911</v>
+        <v>3.177075031445832</v>
       </c>
     </row>
     <row r="140">
@@ -4136,24 +4136,24 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F140" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G140" s="0" t="n">
-        <v>3.178060113857186</v>
+        <v>3.173612993319735</v>
       </c>
     </row>
     <row r="141">
@@ -4163,16 +4163,16 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F141" s="0" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="G141" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>3.169466446700628</v>
       </c>
     </row>
     <row r="142">
@@ -4190,16 +4190,16 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G142" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>3.151969049542801</v>
       </c>
     </row>
     <row r="143">
@@ -4217,24 +4217,24 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G143" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>3.083462019053031</v>
       </c>
     </row>
     <row r="144">
@@ -4244,13 +4244,13 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1000</v>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="G144" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>2.979770872608831</v>
       </c>
     </row>
     <row r="145">
@@ -4271,13 +4271,13 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E145" s="0" t="n">
         <v>1100</v>
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="G145" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>2.979770872608831</v>
       </c>
     </row>
     <row r="146">
@@ -4298,16 +4298,16 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="G146" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>2.979770872608831</v>
       </c>
     </row>
     <row r="147">
@@ -4325,13 +4325,13 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>1100</v>
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="G147" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>2.979770872608831</v>
       </c>
     </row>
     <row r="148">
@@ -4352,13 +4352,13 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1000</v>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="G148" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>2.979770872608831</v>
       </c>
     </row>
     <row r="149">
@@ -4379,24 +4379,24 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F149" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G149" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>2.974294819855263</v>
       </c>
     </row>
     <row r="150">
@@ -4406,16 +4406,16 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         </is>
       </c>
       <c r="G150" s="0" t="n">
-        <v>3.159882573641597</v>
+        <v>2.974101791790362</v>
       </c>
     </row>
     <row r="151">
@@ -4433,16 +4433,16 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="G151" s="0" t="n">
-        <v>3.148334607768819</v>
+        <v>2.96921200427901</v>
       </c>
     </row>
     <row r="152">
@@ -4460,16 +4460,16 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F152" s="0" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G152" s="0" t="n">
-        <v>3.148334607768819</v>
+        <v>2.96921200427901</v>
       </c>
     </row>
     <row r="153">
@@ -4487,16 +4487,16 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F153" s="0" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="G153" s="0" t="n">
-        <v>3.148334607768819</v>
+        <v>2.96921200427901</v>
       </c>
     </row>
     <row r="154">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G154" s="0" t="n">
-        <v>3.03909984405785</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="155">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E155" s="0" t="n">
         <v>800</v>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="G155" s="0" t="n">
-        <v>3.03909984405785</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="156">
@@ -4568,24 +4568,24 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F156" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G156" s="0" t="n">
-        <v>2.988535219548068</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="157">
@@ -4595,16 +4595,16 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="G157" s="0" t="n">
-        <v>2.987282746110294</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="158">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G158" s="0" t="n">
-        <v>2.987282746110294</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="159">
@@ -4649,16 +4649,16 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="G159" s="0" t="n">
-        <v>2.987282746110294</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="160">
@@ -4679,21 +4679,21 @@
         <v>30</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G160" s="0" t="n">
-        <v>2.97096950088344</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="161">
@@ -4706,21 +4706,21 @@
         <v>30</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F161" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G161" s="0" t="n">
-        <v>2.97096950088344</v>
+        <v>2.862992296172934</v>
       </c>
     </row>
     <row r="162">
@@ -4730,24 +4730,24 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G162" s="0" t="n">
-        <v>2.97096950088344</v>
+        <v>2.825421982230186</v>
       </c>
     </row>
     <row r="163">
@@ -4757,24 +4757,24 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G163" s="0" t="n">
-        <v>2.97096950088344</v>
+        <v>2.785640349782282</v>
       </c>
     </row>
     <row r="164">
@@ -4784,24 +4784,24 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F164" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G164" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="165">
@@ -4811,24 +4811,24 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="F165" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G165" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="166">
@@ -4838,24 +4838,24 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G166" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="167">
@@ -4865,24 +4865,24 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G167" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="168">
@@ -4892,24 +4892,24 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F168" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G168" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="169">
@@ -4919,24 +4919,24 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F169" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G169" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="170">
@@ -4946,24 +4946,24 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F170" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G170" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="171">
@@ -4973,24 +4973,24 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G171" s="0" t="n">
-        <v>2.947874660319187</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="172">
@@ -5000,24 +5000,24 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F172" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G172" s="0" t="n">
-        <v>2.935587395849992</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="173">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F173" s="0" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G173" s="0" t="n">
-        <v>2.895727378309109</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="174">
@@ -5054,16 +5054,16 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="G174" s="0" t="n">
-        <v>2.889807126259841</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="175">
@@ -5090,15 +5090,15 @@
         <v>550</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G175" s="0" t="n">
-        <v>2.819452016842566</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="176">
@@ -5108,24 +5108,24 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F176" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G176" s="0" t="n">
-        <v>2.808755680582306</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="177">
@@ -5135,24 +5135,24 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F177" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G177" s="0" t="n">
-        <v>2.808755680582306</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="178">
@@ -5162,24 +5162,24 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F178" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G178" s="0" t="n">
-        <v>2.808755680582306</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="179">
@@ -5189,24 +5189,24 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G179" s="0" t="n">
-        <v>2.808755680582306</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="180">
@@ -5216,24 +5216,24 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F180" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G180" s="0" t="n">
-        <v>2.79664031590565</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="181">
@@ -5243,24 +5243,24 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F181" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G181" s="0" t="n">
-        <v>2.79664031590565</v>
+        <v>2.730332991889468</v>
       </c>
     </row>
     <row r="182">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E182" s="0" t="n">
         <v>700</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="G182" s="0" t="n">
-        <v>2.763746965573265</v>
+        <v>2.712804638287921</v>
       </c>
     </row>
     <row r="183">
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E183" s="0" t="n">
         <v>700</v>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2.763746965573265</v>
+        <v>2.712804638287921</v>
       </c>
     </row>
     <row r="184">
@@ -5324,24 +5324,24 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F184" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G184" s="0" t="n">
-        <v>2.763439509340087</v>
+        <v>2.596168052993924</v>
       </c>
     </row>
     <row r="185">
@@ -5354,21 +5354,21 @@
         <v>20</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F185" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G185" s="0" t="n">
-        <v>2.757826713523997</v>
+        <v>2.596168052993924</v>
       </c>
     </row>
     <row r="186">
@@ -5381,21 +5381,21 @@
         <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G186" s="0" t="n">
-        <v>2.757826713523997</v>
+        <v>2.596168052993924</v>
       </c>
     </row>
     <row r="187">
@@ -5408,21 +5408,21 @@
         <v>20</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G187" s="0" t="n">
-        <v>2.757826713523997</v>
+        <v>2.596168052993924</v>
       </c>
     </row>
     <row r="188">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>80</v>
@@ -5441,7 +5441,7 @@
         <v>200</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F188" s="0" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="G188" s="0" t="n">
-        <v>2.757826713523997</v>
+        <v>2.590440149616432</v>
       </c>
     </row>
     <row r="189">
@@ -5459,7 +5459,7 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>80</v>
@@ -5468,7 +5468,7 @@
         <v>200</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F189" s="0" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="G189" s="0" t="n">
-        <v>2.757826713523997</v>
+        <v>2.590440149616432</v>
       </c>
     </row>
     <row r="190">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>80</v>
@@ -5495,7 +5495,7 @@
         <v>200</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F190" s="0" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="G190" s="0" t="n">
-        <v>2.757826713523997</v>
+        <v>2.590440149616432</v>
       </c>
     </row>
     <row r="191">
@@ -5513,24 +5513,24 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D191" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G191" s="0" t="n">
-        <v>2.670441900285814</v>
+        <v>2.524810812528775</v>
       </c>
     </row>
     <row r="192">
@@ -5540,24 +5540,24 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
       <c r="F192" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G192" s="0" t="n">
-        <v>2.670441900285814</v>
+        <v>2.524810812528775</v>
       </c>
     </row>
     <row r="193">
@@ -5567,24 +5567,24 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F193" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G193" s="0" t="n">
-        <v>2.608994592572067</v>
+        <v>2.524810812528775</v>
       </c>
     </row>
     <row r="194">
@@ -5597,21 +5597,21 @@
         <v>10</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G194" s="0" t="n">
-        <v>2.421654645605151</v>
+        <v>2.524810812528775</v>
       </c>
     </row>
     <row r="195">
@@ -5624,21 +5624,21 @@
         <v>10</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G195" s="0" t="n">
-        <v>2.421654645605151</v>
+        <v>2.524810812528775</v>
       </c>
     </row>
     <row r="196">
@@ -5651,21 +5651,21 @@
         <v>10</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F196" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G196" s="0" t="n">
-        <v>2.421654645605151</v>
+        <v>2.524810812528775</v>
       </c>
     </row>
     <row r="197">
@@ -5678,21 +5678,21 @@
         <v>10</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F197" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G197" s="0" t="n">
-        <v>2.421654645605151</v>
+        <v>2.517256478450984</v>
       </c>
     </row>
     <row r="198">
@@ -5702,24 +5702,24 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F198" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G198" s="0" t="n">
-        <v>2.421654645605151</v>
+        <v>2.48778903540192</v>
       </c>
     </row>
     <row r="199">
@@ -5729,16 +5729,16 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G199" s="0" t="n">
-        <v>2.421654645605151</v>
+        <v>2.307413757941128</v>
       </c>
     </row>
     <row r="200">
@@ -5756,16 +5756,16 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F200" s="0" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="G200" s="0" t="n">
-        <v>2.421654645605151</v>
+        <v>2.307413757941128</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,16 +383,16 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.143075740746951</v>
       </c>
     </row>
     <row r="2">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.143075740746951</v>
       </c>
     </row>
     <row r="3">
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>650</v>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.143075740746951</v>
       </c>
     </row>
     <row r="4">
@@ -464,13 +464,13 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1500</v>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="5">
@@ -491,16 +491,16 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="6">
@@ -518,16 +518,16 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1000</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="10">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="11">
@@ -653,16 +653,16 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="12">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="13">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1000</v>
@@ -724,7 +724,7 @@
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="16">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="17">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1000</v>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="18">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="19">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="20">
@@ -896,13 +896,13 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="21">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="22">
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="23">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="24">
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="25">
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="26">
@@ -1058,16 +1058,16 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="27">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="28">
@@ -1112,16 +1112,16 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="29">
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="30">
@@ -1166,16 +1166,16 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="31">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="32">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>1000</v>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.383671261070052</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="33">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.365503982143032</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="34">
@@ -1274,24 +1274,24 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="35">
@@ -1301,24 +1301,24 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="36">
@@ -1328,24 +1328,24 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="37">
@@ -1355,24 +1355,24 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="38">
@@ -1382,24 +1382,24 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="39">
@@ -1409,24 +1409,24 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="40">
@@ -1436,24 +1436,24 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="41">
@@ -1463,24 +1463,24 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="42">
@@ -1490,24 +1490,24 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="43">
@@ -1517,24 +1517,24 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.364595632631271</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="44">
@@ -1544,24 +1544,24 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.359769420955442</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="45">
@@ -1571,24 +1571,24 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.350050452418586</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="46">
@@ -1598,24 +1598,24 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.340775305758267</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="47">
@@ -1625,24 +1625,24 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.340775305758267</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="48">
@@ -1652,24 +1652,24 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.332593147706533</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="49">
@@ -1679,24 +1679,24 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.332593147706533</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="50">
@@ -1706,24 +1706,24 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.296925078127139</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="51">
@@ -1733,24 +1733,24 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1.296925078127139</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="52">
@@ -1760,24 +1760,24 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1.296925078127139</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="53">
@@ -1787,24 +1787,24 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1.296925078127139</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="54">
@@ -1814,24 +1814,24 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1.289855102988091</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="55">
@@ -1841,24 +1841,24 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1.289855102988091</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="56">
@@ -1868,16 +1868,16 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1.268764415309547</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="57">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1.25618815980645</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="58">
@@ -1925,13 +1925,13 @@
         <v>40</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1.25618815980645</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="59">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1.25618815980645</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="60">
@@ -1979,13 +1979,13 @@
         <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1.145080399756427</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="61">
@@ -2003,16 +2003,16 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1.145080399756427</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="62">
@@ -2030,24 +2030,24 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1.141877967198331</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="63">
@@ -2057,24 +2057,24 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E63" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1.141877967198331</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="64">
@@ -2087,21 +2087,21 @@
         <v>20</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1.141572062728583</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="65">
@@ -2114,21 +2114,21 @@
         <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1.141572062728583</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="66">
@@ -2138,24 +2138,24 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1.141572062728583</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="67">
@@ -2168,21 +2168,21 @@
         <v>20</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1.141572062728583</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="68">
@@ -2195,21 +2195,21 @@
         <v>20</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1.126695552662364</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="69">
@@ -2219,24 +2219,24 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1.104789417486934</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="70">
@@ -2246,24 +2246,24 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1.104789417486934</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="71">
@@ -2273,24 +2273,24 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1.104789417486934</v>
+        <v>1.120291094301291</v>
       </c>
     </row>
     <row r="72">
@@ -2300,24 +2300,24 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1.104789417486934</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="73">
@@ -2327,24 +2327,24 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1.104789417486934</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="74">
@@ -2354,24 +2354,24 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1.09410670611557</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="75">
@@ -2381,24 +2381,24 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1.065652637554499</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="76">
@@ -2408,24 +2408,24 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="77">
@@ -2435,24 +2435,24 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="78">
@@ -2462,24 +2462,24 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="79">
@@ -2489,24 +2489,24 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="80">
@@ -2516,24 +2516,24 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="81">
@@ -2543,24 +2543,24 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="82">
@@ -2570,24 +2570,24 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="83">
@@ -2597,24 +2597,24 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="84">
@@ -2624,24 +2624,24 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="85">
@@ -2651,24 +2651,24 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="86">
@@ -2678,24 +2678,24 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="87">
@@ -2705,24 +2705,24 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="88">
@@ -2732,24 +2732,24 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="89">
@@ -2759,24 +2759,24 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="90">
@@ -2786,24 +2786,24 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="91">
@@ -2813,24 +2813,24 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1.036509744375926</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="92">
@@ -2840,24 +2840,24 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.9282177406053573</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="93">
@@ -2867,24 +2867,24 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.9282177406053573</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="94">
@@ -2894,24 +2894,24 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.9050272975744202</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="95">
@@ -2921,24 +2921,24 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.8605836072615564</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="96">
@@ -2948,24 +2948,24 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.8605836072615564</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="97">
@@ -2975,24 +2975,24 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.8605836072615564</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="98">
@@ -3002,24 +3002,24 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.8605836072615564</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="99">
@@ -3029,24 +3029,24 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.7878265001310369</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="100">
@@ -3056,24 +3056,24 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.7878265001310369</v>
+        <v>1.087223209806645</v>
       </c>
     </row>
     <row r="101">
@@ -3083,24 +3083,24 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G101" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="102">
@@ -3110,24 +3110,24 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G102" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="103">
@@ -3137,24 +3137,24 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G103" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="104">
@@ -3164,24 +3164,24 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G104" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="105">
@@ -3191,24 +3191,24 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G105" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="106">
@@ -3218,24 +3218,24 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G106" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="107">
@@ -3245,24 +3245,24 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G107" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="108">
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C108" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C108" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="D108" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G108" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="109">
@@ -3299,24 +3299,24 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G109" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="110">
@@ -3326,24 +3326,24 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C110" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C110" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="D110" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G110" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="111">
@@ -3353,24 +3353,24 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G111" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="112">
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G112" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="113">
@@ -3407,24 +3407,24 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G113" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="114">
@@ -3434,24 +3434,24 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C114" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D114" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G114" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="115">
@@ -3461,24 +3461,24 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G115" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="116">
@@ -3488,24 +3488,24 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F116" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G116" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="117">
@@ -3515,24 +3515,24 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G117" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="118">
@@ -3542,24 +3542,24 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G118" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="119">
@@ -3569,24 +3569,24 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G119" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="120">
@@ -3596,24 +3596,24 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F120" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G120" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="121">
@@ -3623,24 +3623,24 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G121" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="122">
@@ -3650,24 +3650,24 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C122" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C122" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="D122" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G122" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.082081874789081</v>
       </c>
     </row>
     <row r="123">
@@ -3677,24 +3677,24 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G123" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.064444942247704</v>
       </c>
     </row>
     <row r="124">
@@ -3704,24 +3704,24 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C124" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C124" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D124" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F124" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G124" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.064444942247704</v>
       </c>
     </row>
     <row r="125">
@@ -3731,24 +3731,24 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C125" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C125" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D125" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F125" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G125" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.064444942247704</v>
       </c>
     </row>
     <row r="126">
@@ -3758,24 +3758,24 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G126" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.064444942247704</v>
       </c>
     </row>
     <row r="127">
@@ -3785,24 +3785,24 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G127" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="128">
@@ -3812,24 +3812,24 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="F128" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G128" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="129">
@@ -3839,24 +3839,24 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G129" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="130">
@@ -3866,24 +3866,24 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C130" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C130" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D130" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G130" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="131">
@@ -3896,21 +3896,21 @@
         <v>40</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G131" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="132">
@@ -3920,24 +3920,24 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C132" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C132" s="0" t="n">
-        <v>140</v>
-      </c>
       <c r="D132" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F132" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G132" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="133">
@@ -3947,24 +3947,24 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G133" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="134">
@@ -3974,24 +3974,24 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C134" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C134" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D134" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G134" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="135">
@@ -4001,24 +4001,24 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G135" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="136">
@@ -4028,24 +4028,24 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F136" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G136" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="137">
@@ -4055,24 +4055,24 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G137" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="138">
@@ -4082,24 +4082,24 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C138" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C138" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D138" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G138" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="139">
@@ -4109,24 +4109,24 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G139" s="0" t="n">
-        <v>3.177075031445832</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="140">
@@ -4139,21 +4139,21 @@
         <v>40</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F140" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G140" s="0" t="n">
-        <v>3.173612993319735</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="141">
@@ -4163,16 +4163,16 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>750</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F141" s="0" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="G141" s="0" t="n">
-        <v>3.169466446700628</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="142">
@@ -4190,16 +4190,16 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="G142" s="0" t="n">
-        <v>3.151969049542801</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="143">
@@ -4217,24 +4217,24 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G143" s="0" t="n">
-        <v>3.083462019053031</v>
+        <v>1.055125373041307</v>
       </c>
     </row>
     <row r="144">
@@ -4244,24 +4244,24 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E144" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F144" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G144" s="0" t="n">
-        <v>2.979770872608831</v>
+        <v>1.051657372833314</v>
       </c>
     </row>
     <row r="145">
@@ -4271,24 +4271,24 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G145" s="0" t="n">
-        <v>2.979770872608831</v>
+        <v>1.051657372833314</v>
       </c>
     </row>
     <row r="146">
@@ -4298,24 +4298,24 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E146" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G146" s="0" t="n">
-        <v>2.979770872608831</v>
+        <v>1.051657372833314</v>
       </c>
     </row>
     <row r="147">
@@ -4325,24 +4325,24 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G147" s="0" t="n">
-        <v>2.979770872608831</v>
+        <v>1.050697492061448</v>
       </c>
     </row>
     <row r="148">
@@ -4352,24 +4352,24 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E148" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F148" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G148" s="0" t="n">
-        <v>2.979770872608831</v>
+        <v>1.050697492061448</v>
       </c>
     </row>
     <row r="149">
@@ -4382,13 +4382,13 @@
         <v>20</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F149" s="0" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="G149" s="0" t="n">
-        <v>2.974294819855263</v>
+        <v>1.050697492061448</v>
       </c>
     </row>
     <row r="150">
@@ -4406,24 +4406,24 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G150" s="0" t="n">
-        <v>2.974101791790362</v>
+        <v>1.050697492061448</v>
       </c>
     </row>
     <row r="151">
@@ -4433,24 +4433,24 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G151" s="0" t="n">
-        <v>2.96921200427901</v>
+        <v>1.050697492061448</v>
       </c>
     </row>
     <row r="152">
@@ -4460,16 +4460,16 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F152" s="0" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="G152" s="0" t="n">
-        <v>2.96921200427901</v>
+        <v>1.009096003316417</v>
       </c>
     </row>
     <row r="153">
@@ -4487,16 +4487,16 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F153" s="0" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="G153" s="0" t="n">
-        <v>2.96921200427901</v>
+        <v>1.009096003316417</v>
       </c>
     </row>
     <row r="154">
@@ -4514,24 +4514,24 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G154" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>1.004731743814098</v>
       </c>
     </row>
     <row r="155">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="G155" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>1.002323929344918</v>
       </c>
     </row>
     <row r="156">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F156" s="0" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="G156" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>1.002323929344918</v>
       </c>
     </row>
     <row r="157">
@@ -4595,24 +4595,24 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G157" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>0.9517781225019372</v>
       </c>
     </row>
     <row r="158">
@@ -4622,24 +4622,24 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G158" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>0.9346849875146154</v>
       </c>
     </row>
     <row r="159">
@@ -4649,24 +4649,24 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G159" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>0.9346849875146154</v>
       </c>
     </row>
     <row r="160">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D160" s="0" t="n">
         <v>0</v>
@@ -4689,11 +4689,11 @@
       </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G160" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>0.9167287900312412</v>
       </c>
     </row>
     <row r="161">
@@ -4703,24 +4703,24 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F161" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G161" s="0" t="n">
-        <v>2.862992296172934</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="162">
@@ -4730,24 +4730,24 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G162" s="0" t="n">
-        <v>2.825421982230186</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="163">
@@ -4757,24 +4757,24 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G163" s="0" t="n">
-        <v>2.785640349782282</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="164">
@@ -4787,21 +4787,21 @@
         <v>10</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D164" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F164" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G164" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="165">
@@ -4811,24 +4811,24 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F165" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G165" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="166">
@@ -4841,21 +4841,21 @@
         <v>20</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D166" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G166" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="167">
@@ -4865,24 +4865,24 @@
         </is>
       </c>
       <c r="B167" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D167" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G167" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="168">
@@ -4895,21 +4895,21 @@
         <v>20</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D168" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F168" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G168" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="169">
@@ -4919,24 +4919,24 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F169" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G169" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="170">
@@ -4946,24 +4946,24 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F170" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G170" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="171">
@@ -4973,24 +4973,24 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G171" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="172">
@@ -5000,24 +5000,24 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F172" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G172" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="173">
@@ -5030,21 +5030,21 @@
         <v>20</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F173" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G173" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="174">
@@ -5057,21 +5057,21 @@
         <v>20</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G174" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="175">
@@ -5084,21 +5084,21 @@
         <v>20</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G175" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="176">
@@ -5108,24 +5108,24 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F176" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G176" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="177">
@@ -5135,24 +5135,24 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F177" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G177" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="178">
@@ -5165,21 +5165,21 @@
         <v>20</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D178" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F178" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G178" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.894392945513418</v>
       </c>
     </row>
     <row r="179">
@@ -5192,21 +5192,21 @@
         <v>20</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D179" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G179" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.8880068540490242</v>
       </c>
     </row>
     <row r="180">
@@ -5219,21 +5219,21 @@
         <v>20</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F180" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G180" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.8880068540490242</v>
       </c>
     </row>
     <row r="181">
@@ -5243,24 +5243,24 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D181" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F181" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G181" s="0" t="n">
-        <v>2.730332991889468</v>
+        <v>0.8880068540490242</v>
       </c>
     </row>
     <row r="182">
@@ -5270,24 +5270,24 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F182" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G182" s="0" t="n">
-        <v>2.712804638287921</v>
+        <v>0.8880068540490242</v>
       </c>
     </row>
     <row r="183">
@@ -5297,24 +5297,24 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G183" s="0" t="n">
-        <v>2.712804638287921</v>
+        <v>0.8880068540490242</v>
       </c>
     </row>
     <row r="184">
@@ -5327,21 +5327,21 @@
         <v>20</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F184" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G184" s="0" t="n">
-        <v>2.596168052993924</v>
+        <v>0.8880068540490242</v>
       </c>
     </row>
     <row r="185">
@@ -5354,21 +5354,21 @@
         <v>20</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D185" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="F185" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G185" s="0" t="n">
-        <v>2.596168052993924</v>
+        <v>0.8880068540490242</v>
       </c>
     </row>
     <row r="186">
@@ -5378,16 +5378,16 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="G186" s="0" t="n">
-        <v>2.596168052993924</v>
+        <v>0.8704011098446461</v>
       </c>
     </row>
     <row r="187">
@@ -5405,16 +5405,16 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="G187" s="0" t="n">
-        <v>2.596168052993924</v>
+        <v>0.8704011098446461</v>
       </c>
     </row>
     <row r="188">
@@ -5432,24 +5432,24 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F188" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G188" s="0" t="n">
-        <v>2.590440149616432</v>
+        <v>0.8507685355950066</v>
       </c>
     </row>
     <row r="189">
@@ -5459,24 +5459,24 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F189" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G189" s="0" t="n">
-        <v>2.590440149616432</v>
+        <v>0.8429284621215415</v>
       </c>
     </row>
     <row r="190">
@@ -5486,24 +5486,24 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F190" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G190" s="0" t="n">
-        <v>2.590440149616432</v>
+        <v>0.8429284621215415</v>
       </c>
     </row>
     <row r="191">
@@ -5513,24 +5513,24 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G191" s="0" t="n">
-        <v>2.524810812528775</v>
+        <v>0.7053853207423726</v>
       </c>
     </row>
     <row r="192">
@@ -5540,24 +5540,24 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D192" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F192" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G192" s="0" t="n">
-        <v>2.524810812528775</v>
+        <v>0.7035327499839789</v>
       </c>
     </row>
     <row r="193">
@@ -5567,24 +5567,24 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F193" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G193" s="0" t="n">
-        <v>2.524810812528775</v>
+        <v>0.7035327499839789</v>
       </c>
     </row>
     <row r="194">
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G194" s="0" t="n">
-        <v>2.524810812528775</v>
+        <v>0.7035327499839789</v>
       </c>
     </row>
     <row r="195">
@@ -5621,24 +5621,24 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G195" s="0" t="n">
-        <v>2.524810812528775</v>
+        <v>0.7018042834489494</v>
       </c>
     </row>
     <row r="196">
@@ -5648,24 +5648,24 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F196" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G196" s="0" t="n">
-        <v>2.524810812528775</v>
+        <v>0.7018042834489494</v>
       </c>
     </row>
     <row r="197">
@@ -5675,16 +5675,16 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F197" s="0" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="G197" s="0" t="n">
-        <v>2.517256478450984</v>
+        <v>0.7018042834489494</v>
       </c>
     </row>
     <row r="198">
@@ -5702,16 +5702,16 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F198" s="0" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         </is>
       </c>
       <c r="G198" s="0" t="n">
-        <v>2.48778903540192</v>
+        <v>0.7018042834489494</v>
       </c>
     </row>
     <row r="199">
@@ -5729,16 +5729,16 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G199" s="0" t="n">
-        <v>2.307413757941128</v>
+        <v>0.6171246214806294</v>
       </c>
     </row>
     <row r="200">
@@ -5756,16 +5756,16 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F200" s="0" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="G200" s="0" t="n">
-        <v>2.307413757941128</v>
+        <v>0.493737764220151</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H200"/>
@@ -383,24 +383,24 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1.143075740746951</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="2">
@@ -410,24 +410,24 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.143075740746951</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="3">
@@ -437,24 +437,24 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.143075740746951</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="4">
@@ -464,24 +464,24 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="5">
@@ -491,24 +491,24 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="6">
@@ -518,24 +518,24 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="7">
@@ -545,24 +545,24 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="8">
@@ -572,24 +572,24 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="9">
@@ -599,24 +599,24 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="10">
@@ -626,24 +626,24 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="11">
@@ -653,24 +653,24 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="12">
@@ -680,24 +680,24 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="13">
@@ -707,24 +707,24 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="14">
@@ -734,24 +734,24 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="15">
@@ -761,24 +761,24 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="16">
@@ -788,24 +788,24 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="17">
@@ -815,24 +815,24 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="18">
@@ -842,24 +842,24 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="19">
@@ -869,24 +869,24 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="20">
@@ -896,24 +896,24 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="21">
@@ -923,24 +923,24 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="22">
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="23">
@@ -977,24 +977,24 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="24">
@@ -1004,24 +1004,24 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="25">
@@ -1031,24 +1031,24 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="26">
@@ -1058,24 +1058,24 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="27">
@@ -1085,24 +1085,24 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="28">
@@ -1112,24 +1112,24 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="29">
@@ -1139,24 +1139,24 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="30">
@@ -1166,24 +1166,24 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="31">
@@ -1193,24 +1193,24 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="32">
@@ -1220,24 +1220,24 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="33">
@@ -1250,21 +1250,21 @@
         <v>40</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="34">
@@ -1274,24 +1274,24 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="35">
@@ -1301,24 +1301,24 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="36">
@@ -1328,24 +1328,24 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="37">
@@ -1355,24 +1355,24 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="38">
@@ -1382,24 +1382,24 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="39">
@@ -1409,24 +1409,24 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="40">
@@ -1436,24 +1436,24 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="41">
@@ -1463,24 +1463,24 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="42">
@@ -1490,24 +1490,24 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="43">
@@ -1517,24 +1517,24 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="44">
@@ -1544,24 +1544,24 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.423088316395859</v>
       </c>
     </row>
     <row r="45">
@@ -1571,24 +1571,24 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422827136101642</v>
       </c>
     </row>
     <row r="46">
@@ -1598,24 +1598,24 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422612937106524</v>
       </c>
     </row>
     <row r="47">
@@ -1625,24 +1625,24 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422612937106524</v>
       </c>
     </row>
     <row r="48">
@@ -1652,24 +1652,24 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422499689053699</v>
       </c>
     </row>
     <row r="49">
@@ -1679,24 +1679,24 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422499689053699</v>
       </c>
     </row>
     <row r="50">
@@ -1706,24 +1706,24 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422499689053699</v>
       </c>
     </row>
     <row r="51">
@@ -1733,24 +1733,24 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422499689053699</v>
       </c>
     </row>
     <row r="52">
@@ -1760,24 +1760,24 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.422499689053699</v>
       </c>
     </row>
     <row r="53">
@@ -1787,24 +1787,24 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="54">
@@ -1814,24 +1814,24 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="55">
@@ -1841,24 +1841,24 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="56">
@@ -1868,24 +1868,24 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="57">
@@ -1895,24 +1895,24 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="58">
@@ -1922,24 +1922,24 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="59">
@@ -1949,24 +1949,24 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="60">
@@ -1976,24 +1976,24 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="61">
@@ -2003,24 +2003,24 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="62">
@@ -2030,24 +2030,24 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1500</v>
+        <v>550</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="63">
@@ -2057,24 +2057,24 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="64">
@@ -2084,24 +2084,24 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="65">
@@ -2111,24 +2111,24 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="66">
@@ -2138,24 +2138,24 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="67">
@@ -2165,24 +2165,24 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="68">
@@ -2192,24 +2192,24 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420756156061584</v>
       </c>
     </row>
     <row r="69">
@@ -2219,24 +2219,24 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420711662193726</v>
       </c>
     </row>
     <row r="70">
@@ -2246,24 +2246,24 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420711662193726</v>
       </c>
     </row>
     <row r="71">
@@ -2273,24 +2273,24 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1.120291094301291</v>
+        <v>1.420711662193726</v>
       </c>
     </row>
     <row r="72">
@@ -2300,24 +2300,24 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420711662193726</v>
       </c>
     </row>
     <row r="73">
@@ -2327,24 +2327,24 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420711662193726</v>
       </c>
     </row>
     <row r="74">
@@ -2354,24 +2354,24 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420423031258887</v>
       </c>
     </row>
     <row r="75">
@@ -2381,24 +2381,24 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420423031258887</v>
       </c>
     </row>
     <row r="76">
@@ -2408,24 +2408,24 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D76" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E76" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E76" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420423031258887</v>
       </c>
     </row>
     <row r="77">
@@ -2435,24 +2435,24 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D77" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E77" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="E77" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420423031258887</v>
       </c>
     </row>
     <row r="78">
@@ -2462,24 +2462,24 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420423031258887</v>
       </c>
     </row>
     <row r="79">
@@ -2489,24 +2489,24 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420423031258887</v>
       </c>
     </row>
     <row r="80">
@@ -2516,24 +2516,24 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420423031258887</v>
       </c>
     </row>
     <row r="81">
@@ -2543,24 +2543,24 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>900</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420328089763242</v>
       </c>
     </row>
     <row r="82">
@@ -2570,24 +2570,24 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420328089763242</v>
       </c>
     </row>
     <row r="83">
@@ -2597,24 +2597,24 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420328089763242</v>
       </c>
     </row>
     <row r="84">
@@ -2624,24 +2624,24 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420328089763242</v>
       </c>
     </row>
     <row r="85">
@@ -2654,21 +2654,21 @@
         <v>80</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420180769954551</v>
       </c>
     </row>
     <row r="86">
@@ -2678,24 +2678,24 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420180769954551</v>
       </c>
     </row>
     <row r="87">
@@ -2705,24 +2705,24 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420180769954551</v>
       </c>
     </row>
     <row r="88">
@@ -2732,24 +2732,24 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D88" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E88" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="E88" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420180769954551</v>
       </c>
     </row>
     <row r="89">
@@ -2759,24 +2759,24 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420180769954551</v>
       </c>
     </row>
     <row r="90">
@@ -2786,24 +2786,24 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.420180769954551</v>
       </c>
     </row>
     <row r="91">
@@ -2813,24 +2813,24 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D91" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E91" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="E91" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.416229111578565</v>
       </c>
     </row>
     <row r="92">
@@ -2840,24 +2840,24 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.416229111578565</v>
       </c>
     </row>
     <row r="93">
@@ -2867,24 +2867,24 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D93" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="E93" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="E93" s="0" t="n">
-        <v>900</v>
-      </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.416229111578565</v>
       </c>
     </row>
     <row r="94">
@@ -2894,24 +2894,24 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.416229111578565</v>
       </c>
     </row>
     <row r="95">
@@ -2921,24 +2921,24 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.416229111578565</v>
       </c>
     </row>
     <row r="96">
@@ -2948,24 +2948,24 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.416229111578565</v>
       </c>
     </row>
     <row r="97">
@@ -2978,21 +2978,21 @@
         <v>60</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.416229111578565</v>
       </c>
     </row>
     <row r="98">
@@ -3002,24 +3002,24 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.406904927416696</v>
       </c>
     </row>
     <row r="99">
@@ -3029,24 +3029,24 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.406904927416696</v>
       </c>
     </row>
     <row r="100">
@@ -3056,24 +3056,24 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1.087223209806645</v>
+        <v>1.406904927416696</v>
       </c>
     </row>
     <row r="101">
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.405508324483718</v>
       </c>
     </row>
     <row r="102">
@@ -3110,16 +3110,16 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.405508324483718</v>
       </c>
     </row>
     <row r="103">
@@ -3137,16 +3137,16 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D103" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="G103" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.402323711590667</v>
       </c>
     </row>
     <row r="104">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D104" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.402323711590667</v>
       </c>
     </row>
     <row r="105">
@@ -3191,24 +3191,24 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.392130577808505</v>
       </c>
     </row>
     <row r="106">
@@ -3218,24 +3218,24 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.392130577808505</v>
       </c>
     </row>
     <row r="107">
@@ -3245,24 +3245,24 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.392130577808505</v>
       </c>
     </row>
     <row r="108">
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>1100</v>
+        <v>550</v>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G108" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.392130577808505</v>
       </c>
     </row>
     <row r="109">
@@ -3299,24 +3299,24 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D109" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.384006002588574</v>
       </c>
     </row>
     <row r="110">
@@ -3326,24 +3326,24 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D110" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G110" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.384006002588574</v>
       </c>
     </row>
     <row r="111">
@@ -3353,24 +3353,24 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G111" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="112">
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="113">
@@ -3407,24 +3407,24 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G113" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="114">
@@ -3434,24 +3434,24 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="115">
@@ -3461,24 +3461,24 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G115" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="116">
@@ -3488,24 +3488,24 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F116" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="117">
@@ -3515,24 +3515,24 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G117" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="118">
@@ -3542,24 +3542,24 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G118" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="119">
@@ -3569,24 +3569,24 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G119" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="120">
@@ -3596,24 +3596,24 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F120" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G120" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="121">
@@ -3623,24 +3623,24 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G121" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.382790146809956</v>
       </c>
     </row>
     <row r="122">
@@ -3650,24 +3650,24 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G122" s="0" t="n">
-        <v>1.082081874789081</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="123">
@@ -3677,24 +3677,24 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G123" s="0" t="n">
-        <v>1.064444942247704</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="124">
@@ -3704,24 +3704,24 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F124" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G124" s="0" t="n">
-        <v>1.064444942247704</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="125">
@@ -3731,24 +3731,24 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F125" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G125" s="0" t="n">
-        <v>1.064444942247704</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="126">
@@ -3758,24 +3758,24 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G126" s="0" t="n">
-        <v>1.064444942247704</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="127">
@@ -3785,16 +3785,16 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="G127" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="128">
@@ -3818,10 +3818,10 @@
         <v>100</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F128" s="0" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         </is>
       </c>
       <c r="G128" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="129">
@@ -3845,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="G129" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.378584531380998</v>
       </c>
     </row>
     <row r="130">
@@ -3869,21 +3869,21 @@
         <v>40</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G130" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.377507103994398</v>
       </c>
     </row>
     <row r="131">
@@ -3896,21 +3896,21 @@
         <v>40</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>800</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G131" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.377507103994398</v>
       </c>
     </row>
     <row r="132">
@@ -3920,24 +3920,24 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C132" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C132" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="D132" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F132" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G132" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.376116608576724</v>
       </c>
     </row>
     <row r="133">
@@ -3947,24 +3947,24 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G133" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.376116608576724</v>
       </c>
     </row>
     <row r="134">
@@ -3974,24 +3974,24 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C134" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C134" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D134" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G134" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.376116608576724</v>
       </c>
     </row>
     <row r="135">
@@ -4001,24 +4001,24 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G135" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.376116608576724</v>
       </c>
     </row>
     <row r="136">
@@ -4028,24 +4028,24 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F136" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G136" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.376116608576724</v>
       </c>
     </row>
     <row r="137">
@@ -4055,24 +4055,24 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C137" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C137" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D137" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G137" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.376116608576724</v>
       </c>
     </row>
     <row r="138">
@@ -4082,24 +4082,24 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G138" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.376116608576724</v>
       </c>
     </row>
     <row r="139">
@@ -4109,24 +4109,24 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G139" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.368964564894029</v>
       </c>
     </row>
     <row r="140">
@@ -4136,24 +4136,24 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F140" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G140" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.367978060207197</v>
       </c>
     </row>
     <row r="141">
@@ -4163,24 +4163,24 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F141" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G141" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.367978060207197</v>
       </c>
     </row>
     <row r="142">
@@ -4190,24 +4190,24 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G142" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.366618270684577</v>
       </c>
     </row>
     <row r="143">
@@ -4217,24 +4217,24 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G143" s="0" t="n">
-        <v>1.055125373041307</v>
+        <v>1.361085076128606</v>
       </c>
     </row>
     <row r="144">
@@ -4244,24 +4244,24 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F144" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G144" s="0" t="n">
-        <v>1.051657372833314</v>
+        <v>1.341831703797744</v>
       </c>
     </row>
     <row r="145">
@@ -4271,24 +4271,24 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G145" s="0" t="n">
-        <v>1.051657372833314</v>
+        <v>1.341831703797744</v>
       </c>
     </row>
     <row r="146">
@@ -4301,13 +4301,13 @@
         <v>30</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="G146" s="0" t="n">
-        <v>1.051657372833314</v>
+        <v>1.340164266380908</v>
       </c>
     </row>
     <row r="147">
@@ -4328,21 +4328,21 @@
         <v>30</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G147" s="0" t="n">
-        <v>1.050697492061448</v>
+        <v>1.340164266380908</v>
       </c>
     </row>
     <row r="148">
@@ -4355,21 +4355,21 @@
         <v>30</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F148" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G148" s="0" t="n">
-        <v>1.050697492061448</v>
+        <v>1.340164266380908</v>
       </c>
     </row>
     <row r="149">
@@ -4379,24 +4379,24 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F149" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G149" s="0" t="n">
-        <v>1.050697492061448</v>
+        <v>1.335394235590438</v>
       </c>
     </row>
     <row r="150">
@@ -4406,24 +4406,24 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G150" s="0" t="n">
-        <v>1.050697492061448</v>
+        <v>1.335394235590438</v>
       </c>
     </row>
     <row r="151">
@@ -4436,21 +4436,21 @@
         <v>30</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G151" s="0" t="n">
-        <v>1.050697492061448</v>
+        <v>1.335394235590438</v>
       </c>
     </row>
     <row r="152">
@@ -4460,24 +4460,24 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F152" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G152" s="0" t="n">
-        <v>1.009096003316417</v>
+        <v>1.335394235590438</v>
       </c>
     </row>
     <row r="153">
@@ -4487,24 +4487,24 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F153" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G153" s="0" t="n">
-        <v>1.009096003316417</v>
+        <v>1.335394235590438</v>
       </c>
     </row>
     <row r="154">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G154" s="0" t="n">
-        <v>1.004731743814098</v>
+        <v>1.335394235590438</v>
       </c>
     </row>
     <row r="155">
@@ -4541,24 +4541,24 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G155" s="0" t="n">
-        <v>1.002323929344918</v>
+        <v>1.335394235590438</v>
       </c>
     </row>
     <row r="156">
@@ -4568,24 +4568,24 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>650</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F156" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G156" s="0" t="n">
-        <v>1.002323929344918</v>
+        <v>1.32195633383648</v>
       </c>
     </row>
     <row r="157">
@@ -4595,24 +4595,24 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0.9517781225019372</v>
+        <v>1.32195633383648</v>
       </c>
     </row>
     <row r="158">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>100</v>
@@ -4631,15 +4631,15 @@
         <v>300</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G158" s="0" t="n">
-        <v>0.9346849875146154</v>
+        <v>1.234480341686748</v>
       </c>
     </row>
     <row r="159">
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>100</v>
@@ -4658,15 +4658,15 @@
         <v>300</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0.9346849875146154</v>
+        <v>1.234480341686748</v>
       </c>
     </row>
     <row r="160">
@@ -4676,24 +4676,24 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G160" s="0" t="n">
-        <v>0.9167287900312412</v>
+        <v>1.234480341686748</v>
       </c>
     </row>
     <row r="161">
@@ -4703,24 +4703,24 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F161" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G161" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.22704132926164</v>
       </c>
     </row>
     <row r="162">
@@ -4730,24 +4730,24 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.22704132926164</v>
       </c>
     </row>
     <row r="163">
@@ -4760,21 +4760,21 @@
         <v>20</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.173360986654111</v>
       </c>
     </row>
     <row r="164">
@@ -4784,24 +4784,24 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F164" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G164" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.173360986654111</v>
       </c>
     </row>
     <row r="165">
@@ -4811,24 +4811,24 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F165" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G165" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.173360986654111</v>
       </c>
     </row>
     <row r="166">
@@ -4838,24 +4838,24 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G166" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.160397512130282</v>
       </c>
     </row>
     <row r="167">
@@ -4868,13 +4868,13 @@
         <v>10</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G167" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="168">
@@ -4892,16 +4892,16 @@
         </is>
       </c>
       <c r="B168" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F168" s="0" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="G168" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="169">
@@ -4922,13 +4922,13 @@
         <v>10</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F169" s="0" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G169" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="170">
@@ -4949,13 +4949,13 @@
         <v>10</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F170" s="0" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         </is>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="171">
@@ -4976,13 +4976,13 @@
         <v>10</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="172">
@@ -5003,13 +5003,13 @@
         <v>10</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F172" s="0" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="G172" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="173">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B173" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F173" s="0" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="G173" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="174">
@@ -5054,16 +5054,16 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="G174" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.147468258207853</v>
       </c>
     </row>
     <row r="175">
@@ -5084,21 +5084,21 @@
         <v>20</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G175" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.14397684841302</v>
       </c>
     </row>
     <row r="176">
@@ -5108,24 +5108,24 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F176" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G176" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.143798381713756</v>
       </c>
     </row>
     <row r="177">
@@ -5138,21 +5138,21 @@
         <v>20</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F177" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G177" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.143798381713756</v>
       </c>
     </row>
     <row r="178">
@@ -5165,21 +5165,21 @@
         <v>20</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F178" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G178" s="0" t="n">
-        <v>0.894392945513418</v>
+        <v>1.143798381713756</v>
       </c>
     </row>
     <row r="179">
@@ -5189,16 +5189,16 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="G179" s="0" t="n">
-        <v>0.8880068540490242</v>
+        <v>1.142348498308859</v>
       </c>
     </row>
     <row r="180">
@@ -5216,16 +5216,16 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F180" s="0" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="G180" s="0" t="n">
-        <v>0.8880068540490242</v>
+        <v>1.142348498308859</v>
       </c>
     </row>
     <row r="181">
@@ -5243,16 +5243,16 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F181" s="0" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G181" s="0" t="n">
-        <v>0.8880068540490242</v>
+        <v>1.142348498308859</v>
       </c>
     </row>
     <row r="182">
@@ -5270,16 +5270,16 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F182" s="0" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="G182" s="0" t="n">
-        <v>0.8880068540490242</v>
+        <v>1.142348498308859</v>
       </c>
     </row>
     <row r="183">
@@ -5297,24 +5297,24 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G183" s="0" t="n">
-        <v>0.8880068540490242</v>
+        <v>1.140474589934538</v>
       </c>
     </row>
     <row r="184">
@@ -5324,24 +5324,24 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F184" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G184" s="0" t="n">
-        <v>0.8880068540490242</v>
+        <v>1.140474589934538</v>
       </c>
     </row>
     <row r="185">
@@ -5351,24 +5351,24 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F185" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G185" s="0" t="n">
-        <v>0.8880068540490242</v>
+        <v>1.140474589934538</v>
       </c>
     </row>
     <row r="186">
@@ -5378,16 +5378,16 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="G186" s="0" t="n">
-        <v>0.8704011098446461</v>
+        <v>1.120901435996663</v>
       </c>
     </row>
     <row r="187">
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>1500</v>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="G187" s="0" t="n">
-        <v>0.8704011098446461</v>
+        <v>1.112323961089634</v>
       </c>
     </row>
     <row r="188">
@@ -5432,24 +5432,24 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F188" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G188" s="0" t="n">
-        <v>0.8507685355950066</v>
+        <v>1.112323961089634</v>
       </c>
     </row>
     <row r="189">
@@ -5459,16 +5459,16 @@
         </is>
       </c>
       <c r="B189" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F189" s="0" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="G189" s="0" t="n">
-        <v>0.8429284621215415</v>
+        <v>1.083442400481762</v>
       </c>
     </row>
     <row r="190">
@@ -5489,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F190" s="0" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         </is>
       </c>
       <c r="G190" s="0" t="n">
-        <v>0.8429284621215415</v>
+        <v>1.048379446300018</v>
       </c>
     </row>
     <row r="191">
@@ -5513,24 +5513,24 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G191" s="0" t="n">
-        <v>0.7053853207423726</v>
+        <v>1.017026273904193</v>
       </c>
     </row>
     <row r="192">
@@ -5540,16 +5540,16 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F192" s="0" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="G192" s="0" t="n">
-        <v>0.7035327499839789</v>
+        <v>0.9840745256835316</v>
       </c>
     </row>
     <row r="193">
@@ -5570,21 +5570,21 @@
         <v>30</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F193" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G193" s="0" t="n">
-        <v>0.7035327499839789</v>
+        <v>0.9477631851340574</v>
       </c>
     </row>
     <row r="194">
@@ -5597,21 +5597,21 @@
         <v>30</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G194" s="0" t="n">
-        <v>0.7035327499839789</v>
+        <v>0.9477631851340574</v>
       </c>
     </row>
     <row r="195">
@@ -5621,24 +5621,24 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G195" s="0" t="n">
-        <v>0.7018042834489494</v>
+        <v>0.9175310638777858</v>
       </c>
     </row>
     <row r="196">
@@ -5648,24 +5648,24 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F196" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G196" s="0" t="n">
-        <v>0.7018042834489494</v>
+        <v>0.9175310638777858</v>
       </c>
     </row>
     <row r="197">
@@ -5675,24 +5675,24 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F197" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G197" s="0" t="n">
-        <v>0.7018042834489494</v>
+        <v>0.9175310638777858</v>
       </c>
     </row>
     <row r="198">
@@ -5702,24 +5702,24 @@
         </is>
       </c>
       <c r="B198" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F198" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0.7018042834489494</v>
+        <v>0.9175310638777858</v>
       </c>
     </row>
     <row r="199">
@@ -5729,13 +5729,13 @@
         </is>
       </c>
       <c r="B199" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E199" s="0" t="n">
         <v>750</v>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="G199" s="0" t="n">
-        <v>0.6171246214806294</v>
+        <v>0.9175310638777858</v>
       </c>
     </row>
     <row r="200">
@@ -5756,24 +5756,2724 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F200" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>0.9168792497215014</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>rule201</t>
+        </is>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F201" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>1.512640770093011</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>rule202</t>
+        </is>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F202" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>1.512640770093011</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>rule203</t>
+        </is>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F203" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>1.512640770093011</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>rule204</t>
+        </is>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F204" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>1.512072279981963</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>rule205</t>
+        </is>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F205" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>1.512072279981963</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>rule206</t>
+        </is>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F206" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>1.512072279981963</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>rule207</t>
+        </is>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F207" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>1.485766569060597</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>rule208</t>
+        </is>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F208" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>1.485766569060597</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>rule209</t>
+        </is>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F209" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>1.485766569060597</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>rule210</t>
+        </is>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F210" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>1.485766569060597</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>rule211</t>
+        </is>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F211" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>1.485766569060597</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>rule212</t>
+        </is>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F212" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>rule213</t>
+        </is>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D213" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="E213" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F213" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>rule214</t>
+        </is>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C214" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D200" s="0" t="n">
+      <c r="D214" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F214" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>rule215</t>
+        </is>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F215" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>rule216</t>
+        </is>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D216" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E200" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F200" s="0" t="inlineStr">
+      <c r="E216" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F216" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>rule217</t>
+        </is>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F217" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>rule218</t>
+        </is>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F218" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>rule219</t>
+        </is>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F219" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>rule220</t>
+        </is>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F220" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>rule221</t>
+        </is>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F221" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>1.479347414233455</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>rule222</t>
+        </is>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F222" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>1.476327821634785</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>rule223</t>
+        </is>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F223" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>1.476327821634785</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>rule224</t>
+        </is>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F224" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>1.476327821634785</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>rule225</t>
+        </is>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F225" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G225" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>rule226</t>
+        </is>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F226" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>rule227</t>
+        </is>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F227" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G227" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>rule228</t>
+        </is>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F228" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>rule229</t>
+        </is>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F229" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G229" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>rule230</t>
+        </is>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F230" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>rule231</t>
+        </is>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F231" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>rule232</t>
+        </is>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F232" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>rule233</t>
+        </is>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F233" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G233" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>rule234</t>
+        </is>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F234" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>rule235</t>
+        </is>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F235" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>rule236</t>
+        </is>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F236" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>rule237</t>
+        </is>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F237" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>rule238</t>
+        </is>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F238" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>rule239</t>
+        </is>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F239" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>rule240</t>
+        </is>
+      </c>
+      <c r="B240" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F240" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>rule241</t>
+        </is>
+      </c>
+      <c r="B241" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F241" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>rule242</t>
+        </is>
+      </c>
+      <c r="B242" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F242" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G242" s="0" t="n">
+        <v>1.473382561140122</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>rule243</t>
+        </is>
+      </c>
+      <c r="B243" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F243" s="0" t="inlineStr">
         <is>
           <t>36month charter</t>
         </is>
       </c>
-      <c r="G200" s="0" t="n">
-        <v>0.493737764220151</v>
+      <c r="G243" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>rule244</t>
+        </is>
+      </c>
+      <c r="B244" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F244" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G244" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>rule245</t>
+        </is>
+      </c>
+      <c r="B245" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F245" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G245" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>rule246</t>
+        </is>
+      </c>
+      <c r="B246" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F246" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G246" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>rule247</t>
+        </is>
+      </c>
+      <c r="B247" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F247" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>rule248</t>
+        </is>
+      </c>
+      <c r="B248" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F248" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>rule249</t>
+        </is>
+      </c>
+      <c r="B249" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F249" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>rule250</t>
+        </is>
+      </c>
+      <c r="B250" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F250" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G250" s="0" t="n">
+        <v>1.456386392914237</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>rule251</t>
+        </is>
+      </c>
+      <c r="B251" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F251" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>1.428588327054892</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>rule252</t>
+        </is>
+      </c>
+      <c r="B252" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F252" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G252" s="0" t="n">
+        <v>1.428588327054892</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>rule253</t>
+        </is>
+      </c>
+      <c r="B253" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F253" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>1.421517591670934</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>rule254</t>
+        </is>
+      </c>
+      <c r="B254" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F254" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>1.421517591670934</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>rule255</t>
+        </is>
+      </c>
+      <c r="B255" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F255" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>1.421517591670934</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>rule256</t>
+        </is>
+      </c>
+      <c r="B256" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F256" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G256" s="0" t="n">
+        <v>1.421517591670934</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>rule257</t>
+        </is>
+      </c>
+      <c r="B257" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F257" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>1.417425426544211</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>rule258</t>
+        </is>
+      </c>
+      <c r="B258" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F258" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G258" s="0" t="n">
+        <v>1.417425426544211</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>rule259</t>
+        </is>
+      </c>
+      <c r="B259" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F259" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>1.417425426544211</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>rule260</t>
+        </is>
+      </c>
+      <c r="B260" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F260" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G260" s="0" t="n">
+        <v>1.417251897163343</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>rule261</t>
+        </is>
+      </c>
+      <c r="B261" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F261" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G261" s="0" t="n">
+        <v>1.339966353525652</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>rule262</t>
+        </is>
+      </c>
+      <c r="B262" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F262" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G262" s="0" t="n">
+        <v>1.3378898395197</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>rule263</t>
+        </is>
+      </c>
+      <c r="B263" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F263" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G263" s="0" t="n">
+        <v>1.310257150766708</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>rule264</t>
+        </is>
+      </c>
+      <c r="B264" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F264" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G264" s="0" t="n">
+        <v>1.310257150766708</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>rule265</t>
+        </is>
+      </c>
+      <c r="B265" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F265" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G265" s="0" t="n">
+        <v>1.310257150766708</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>rule266</t>
+        </is>
+      </c>
+      <c r="B266" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F266" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G266" s="0" t="n">
+        <v>1.310257150766708</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>rule267</t>
+        </is>
+      </c>
+      <c r="B267" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="F267" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>1.310257150766708</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>rule268</t>
+        </is>
+      </c>
+      <c r="B268" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F268" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>1.306361961240479</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>rule269</t>
+        </is>
+      </c>
+      <c r="B269" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F269" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>1.270421632153521</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>rule270</t>
+        </is>
+      </c>
+      <c r="B270" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F270" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G270" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>rule271</t>
+        </is>
+      </c>
+      <c r="B271" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F271" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G271" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>rule272</t>
+        </is>
+      </c>
+      <c r="B272" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F272" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G272" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>rule273</t>
+        </is>
+      </c>
+      <c r="B273" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F273" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>rule274</t>
+        </is>
+      </c>
+      <c r="B274" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F274" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>rule275</t>
+        </is>
+      </c>
+      <c r="B275" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F275" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>rule276</t>
+        </is>
+      </c>
+      <c r="B276" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F276" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>rule277</t>
+        </is>
+      </c>
+      <c r="B277" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F277" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>rule278</t>
+        </is>
+      </c>
+      <c r="B278" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="F278" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G278" s="0" t="n">
+        <v>1.269133569787787</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>rule279</t>
+        </is>
+      </c>
+      <c r="B279" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F279" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>1.226893009142799</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>rule280</t>
+        </is>
+      </c>
+      <c r="B280" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="F280" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>1.226893009142799</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>rule281</t>
+        </is>
+      </c>
+      <c r="B281" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F281" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>1.226893009142799</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>rule282</t>
+        </is>
+      </c>
+      <c r="B282" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F282" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>1.226893009142799</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>rule283</t>
+        </is>
+      </c>
+      <c r="B283" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F283" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>1.226893009142799</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>rule284</t>
+        </is>
+      </c>
+      <c r="B284" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F284" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>1.226893009142799</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>rule285</t>
+        </is>
+      </c>
+      <c r="B285" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F285" s="0" t="inlineStr">
+        <is>
+          <t>6month charter</t>
+        </is>
+      </c>
+      <c r="G285" s="0" t="n">
+        <v>1.216485034168586</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>rule286</t>
+        </is>
+      </c>
+      <c r="B286" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F286" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>rule287</t>
+        </is>
+      </c>
+      <c r="B287" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>rule288</t>
+        </is>
+      </c>
+      <c r="B288" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F288" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G288" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>rule289</t>
+        </is>
+      </c>
+      <c r="B289" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F289" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>rule290</t>
+        </is>
+      </c>
+      <c r="B290" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F290" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G290" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>rule291</t>
+        </is>
+      </c>
+      <c r="B291" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D291" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F291" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G291" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>rule292</t>
+        </is>
+      </c>
+      <c r="B292" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F292" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G292" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>rule293</t>
+        </is>
+      </c>
+      <c r="B293" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F293" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G293" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>rule294</t>
+        </is>
+      </c>
+      <c r="B294" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F294" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G294" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>rule295</t>
+        </is>
+      </c>
+      <c r="B295" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E295" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F295" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G295" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>rule296</t>
+        </is>
+      </c>
+      <c r="B296" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="F296" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G296" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>rule297</t>
+        </is>
+      </c>
+      <c r="B297" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E297" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="F297" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>rule298</t>
+        </is>
+      </c>
+      <c r="B298" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F298" s="0" t="inlineStr">
+        <is>
+          <t>3month charter</t>
+        </is>
+      </c>
+      <c r="G298" s="0" t="n">
+        <v>1.208375455632888</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>rule299</t>
+        </is>
+      </c>
+      <c r="B299" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F299" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>1.156727004587461</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>rule300</t>
+        </is>
+      </c>
+      <c r="B300" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F300" s="0" t="inlineStr">
+        <is>
+          <t>12month charter</t>
+        </is>
+      </c>
+      <c r="G300" s="0" t="n">
+        <v>1.156727004587461</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G400"/>
+  <dimension ref="A1:H400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H200"/>
@@ -383,16 +383,16 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
@@ -400,7 +400,10 @@
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="2">
@@ -410,16 +413,16 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
@@ -427,7 +430,10 @@
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="3">
@@ -437,16 +443,16 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
@@ -454,7 +460,10 @@
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="4">
@@ -464,16 +473,16 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
@@ -481,7 +490,10 @@
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="5">
@@ -491,16 +503,16 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -508,7 +520,10 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="6">
@@ -518,16 +533,16 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
@@ -535,7 +550,10 @@
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +563,16 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
@@ -562,7 +580,10 @@
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="8">
@@ -572,16 +593,16 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
@@ -589,7 +610,10 @@
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="9">
@@ -599,16 +623,16 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
@@ -616,7 +640,10 @@
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="10">
@@ -626,16 +653,16 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
@@ -643,7 +670,10 @@
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="11">
@@ -653,16 +683,16 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
@@ -670,7 +700,10 @@
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="12">
@@ -680,16 +713,16 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
@@ -697,7 +730,10 @@
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.643185287121027</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5166312949640215</v>
       </c>
     </row>
     <row r="13">
@@ -710,21 +746,24 @@
         <v>50</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="14">
@@ -734,24 +773,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="15">
@@ -764,21 +806,24 @@
         <v>50</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="16">
@@ -788,24 +833,27 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="17">
@@ -815,24 +863,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="18">
@@ -845,21 +896,24 @@
         <v>50</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="19">
@@ -869,24 +923,27 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="20">
@@ -896,24 +953,27 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="21">
@@ -923,24 +983,27 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="22">
@@ -950,24 +1013,27 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="23">
@@ -977,24 +1043,27 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="24">
@@ -1004,24 +1073,27 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="25">
@@ -1031,24 +1103,27 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="26">
@@ -1058,24 +1133,27 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="27">
@@ -1085,24 +1163,27 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="28">
@@ -1112,24 +1193,27 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>1500</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="29">
@@ -1139,24 +1223,27 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>750</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="30">
@@ -1169,21 +1256,24 @@
         <v>50</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="31">
@@ -1193,24 +1283,27 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="32">
@@ -1220,24 +1313,27 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="33">
@@ -1247,24 +1343,27 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="34">
@@ -1274,24 +1373,27 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="35">
@@ -1304,21 +1406,24 @@
         <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="36">
@@ -1331,21 +1436,24 @@
         <v>50</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="37">
@@ -1355,24 +1463,27 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="38">
@@ -1382,7 +1493,7 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>130</v>
@@ -1391,15 +1502,18 @@
         <v>750</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="39">
@@ -1409,24 +1523,27 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="40">
@@ -1436,24 +1553,27 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="41">
@@ -1466,21 +1586,24 @@
         <v>50</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="42">
@@ -1490,7 +1613,7 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>150</v>
@@ -1499,15 +1622,18 @@
         <v>750</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="43">
@@ -1520,21 +1646,24 @@
         <v>50</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="44">
@@ -1544,24 +1673,27 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="45">
@@ -1574,21 +1706,24 @@
         <v>50</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="46">
@@ -1598,24 +1733,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="47">
@@ -1628,21 +1766,24 @@
         <v>50</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.635034075219456</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5049800329254079</v>
       </c>
     </row>
     <row r="48">
@@ -1652,13 +1793,13 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>1300</v>
@@ -1669,7 +1810,10 @@
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.593045320610265</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.4470670352410391</v>
       </c>
     </row>
     <row r="49">
@@ -1679,16 +1823,16 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
@@ -1696,7 +1840,10 @@
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.593045320610265</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.4470670352410391</v>
       </c>
     </row>
     <row r="50">
@@ -1706,24 +1853,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.589654177046286</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.4425436895928526</v>
       </c>
     </row>
     <row r="51">
@@ -1733,24 +1883,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.589654177046286</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.4425436895928526</v>
       </c>
     </row>
     <row r="52">
@@ -1760,24 +1913,27 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.589654177046286</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.4425436895928526</v>
       </c>
     </row>
     <row r="53">
@@ -1787,24 +1943,27 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.589654177046286</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.4425436895928526</v>
       </c>
     </row>
     <row r="54">
@@ -1814,24 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>700</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.573696225063457</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.4215666234957343</v>
       </c>
     </row>
     <row r="55">
@@ -1841,24 +2003,27 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.573696225063457</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.4215666234957343</v>
       </c>
     </row>
     <row r="56">
@@ -1868,13 +2033,13 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>1300</v>
@@ -1885,7 +2050,10 @@
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.568401349977985</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.4147189290398904</v>
       </c>
     </row>
     <row r="57">
@@ -1895,16 +2063,16 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
@@ -1912,7 +2080,10 @@
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.568401349977985</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.4147189290398904</v>
       </c>
     </row>
     <row r="58">
@@ -1922,24 +2093,27 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.532477282998158</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.5614865108150395</v>
       </c>
     </row>
     <row r="59">
@@ -1949,24 +2123,27 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>600</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.532477282998158</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.5614865108150395</v>
       </c>
     </row>
     <row r="60">
@@ -1976,24 +2153,27 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.520402754019946</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.3552018750054516</v>
       </c>
     </row>
     <row r="61">
@@ -2003,24 +2183,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.492496035069986</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5384748614516622</v>
       </c>
     </row>
     <row r="62">
@@ -2030,24 +2213,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.492496035069986</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.5384748614516622</v>
       </c>
     </row>
     <row r="63">
@@ -2057,24 +2243,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.478338000169188</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.3068311288619493</v>
       </c>
     </row>
     <row r="64">
@@ -2084,24 +2273,27 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.478338000169188</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3068311288619493</v>
       </c>
     </row>
     <row r="65">
@@ -2111,24 +2303,27 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.462517714539992</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.3025045335385619</v>
       </c>
     </row>
     <row r="66">
@@ -2138,24 +2333,27 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.462517714539992</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.3025045335385619</v>
       </c>
     </row>
     <row r="67">
@@ -2165,16 +2363,16 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
@@ -2182,7 +2380,10 @@
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.446250963933416</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.2819377141480001</v>
       </c>
     </row>
     <row r="68">
@@ -2195,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
@@ -2209,7 +2410,10 @@
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.446250963933416</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.2819377141480001</v>
       </c>
     </row>
     <row r="69">
@@ -2219,16 +2423,16 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
@@ -2236,7 +2440,10 @@
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.446250963933416</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.2819377141480001</v>
       </c>
     </row>
     <row r="70">
@@ -2246,24 +2453,27 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <v>130</v>
-      </c>
       <c r="D70" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E70" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.429294553710221</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.2669960311459555</v>
       </c>
     </row>
     <row r="71">
@@ -2273,24 +2483,27 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C71" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D71" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E71" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="0" t="n">
-        <v>1500</v>
-      </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.429294553710221</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.2669960311459555</v>
       </c>
     </row>
     <row r="72">
@@ -2300,24 +2513,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C72" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D72" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.429294553710221</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.2669960311459555</v>
       </c>
     </row>
     <row r="73">
@@ -2327,16 +2543,16 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
@@ -2344,7 +2560,10 @@
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="74">
@@ -2354,16 +2573,16 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
@@ -2371,7 +2590,10 @@
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="75">
@@ -2381,16 +2603,16 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
@@ -2398,7 +2620,10 @@
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="76">
@@ -2408,16 +2633,16 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
@@ -2425,7 +2650,10 @@
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="77">
@@ -2435,16 +2663,16 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
@@ -2452,7 +2680,10 @@
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="78">
@@ -2462,16 +2693,16 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
@@ -2479,7 +2710,10 @@
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="79">
@@ -2489,16 +2723,16 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
@@ -2506,7 +2740,10 @@
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="80">
@@ -2516,16 +2753,16 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
@@ -2533,7 +2770,10 @@
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="81">
@@ -2543,16 +2783,16 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
@@ -2560,7 +2800,10 @@
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.418960113288006</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.2445752607911655</v>
       </c>
     </row>
     <row r="82">
@@ -2570,16 +2813,16 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
@@ -2587,7 +2830,10 @@
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.317366378322243</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.1755603590053237</v>
       </c>
     </row>
     <row r="83">
@@ -2597,24 +2843,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="84">
@@ -2624,24 +2873,27 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="85">
@@ -2651,24 +2903,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="86">
@@ -2678,24 +2933,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="87">
@@ -2705,24 +2963,27 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="88">
@@ -2732,24 +2993,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="89">
@@ -2759,24 +3023,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="90">
@@ -2786,24 +3053,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="91">
@@ -2813,24 +3083,27 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="92">
@@ -2840,7 +3113,7 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>120</v>
@@ -2849,15 +3122,18 @@
         <v>0</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.145847348936354</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.3095217027770898</v>
       </c>
     </row>
     <row r="93">
@@ -2867,24 +3143,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.13985869575669</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.3171157531528204</v>
       </c>
     </row>
     <row r="94">
@@ -2894,24 +3173,27 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.13985869575669</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.3171157531528204</v>
       </c>
     </row>
     <row r="95">
@@ -2921,24 +3203,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.13985869575669</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.3171157531528204</v>
       </c>
     </row>
     <row r="96">
@@ -2948,24 +3233,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.13985869575669</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.3171157531528204</v>
       </c>
     </row>
     <row r="97">
@@ -2975,24 +3263,27 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.13985869575669</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.3171157531528204</v>
       </c>
     </row>
     <row r="98">
@@ -3002,24 +3293,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.13985869575669</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.3171157531528204</v>
       </c>
     </row>
     <row r="99">
@@ -3029,24 +3323,27 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>1.13985869575669</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.3171157531528204</v>
       </c>
     </row>
     <row r="100">
@@ -3056,16 +3353,16 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
@@ -3073,7 +3370,10 @@
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>2.376554451027531</v>
+        <v>0.9922519342633256</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.1449124456479075</v>
       </c>
     </row>
     <row r="101">

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,27 +383,27 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.1268109135911205</v>
+        <v>0.02261863089788084</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>1.503843578328125</v>
+        <v>0.3021609958647269</v>
       </c>
     </row>
     <row r="2">
@@ -413,27 +413,27 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.1268109135911205</v>
+        <v>0.02261863089788084</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1.503843578328125</v>
+        <v>0.3021609958647269</v>
       </c>
     </row>
     <row r="3">
@@ -443,27 +443,27 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.1268109135911205</v>
+        <v>0.02261863089788084</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.503843578328125</v>
+        <v>0.3021609958647269</v>
       </c>
     </row>
     <row r="4">
@@ -473,27 +473,27 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.1268109135911205</v>
+        <v>0.02261863089788084</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.503843578328125</v>
+        <v>0.3021609958647269</v>
       </c>
     </row>
     <row r="5">
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>650</v>
-      </c>
       <c r="E5" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.1260630236851297</v>
+        <v>0.02261863089788084</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1.789230328856783</v>
+        <v>0.3021609958647269</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.1260630236851297</v>
+        <v>0.02261863089788084</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1.789230328856783</v>
+        <v>0.3021609958647269</v>
       </c>
     </row>
     <row r="7">
@@ -563,27 +563,27 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="8">
@@ -593,27 +593,27 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="9">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>150</v>
@@ -632,18 +632,18 @@
         <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="10">
@@ -653,27 +653,27 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="11">
@@ -683,27 +683,27 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="12">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>150</v>
@@ -722,18 +722,18 @@
         <v>200</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="13">
@@ -743,27 +743,27 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="14">
@@ -773,27 +773,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="15">
@@ -803,27 +803,27 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="16">
@@ -833,27 +833,27 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="17">
@@ -863,27 +863,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="18">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>150</v>
@@ -902,18 +902,18 @@
         <v>200</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="19">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>150</v>
@@ -932,18 +932,18 @@
         <v>200</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="20">
@@ -953,27 +953,27 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="21">
@@ -983,27 +983,27 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.09941010642723791</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.9278019358072168</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="22">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="23">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="24">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="25">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="26">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="27">
@@ -1163,16 +1163,16 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="28">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="29">
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>150</v>
@@ -1232,7 +1232,7 @@
         <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="30">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="31">
@@ -1283,16 +1283,16 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="32">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>150</v>
@@ -1322,7 +1322,7 @@
         <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="33">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="34">
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="35">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>150</v>
@@ -1412,7 +1412,7 @@
         <v>200</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="36">
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="37">
@@ -1463,16 +1463,16 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="38">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="39">
@@ -1523,16 +1523,16 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="40">
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="41">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="42">
@@ -1613,16 +1613,16 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="43">
@@ -1643,16 +1643,16 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="44">
@@ -1673,16 +1673,16 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="45">
@@ -1703,16 +1703,16 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
@@ -1720,10 +1720,10 @@
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.07598324451406335</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1.657762769977424</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="46">
@@ -1733,27 +1733,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.06415353893725806</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1.627440241348483</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="47">
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.06415353893725806</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1.627440241348483</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="48">
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.06415353893725806</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1.627440241348483</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="49">
@@ -1823,27 +1823,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.06120577192304322</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1.619927929172494</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="50">
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.06120577192304322</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1.619927929172494</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="51">
@@ -1883,27 +1883,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.06120577192304322</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1.619927929172494</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="52">
@@ -1913,27 +1913,27 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.06120577192304322</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1.619927929172494</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="53">
@@ -1943,27 +1943,27 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.06120577192304322</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>1.619927929172494</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="54">
@@ -1973,27 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.04878352242106648</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.8328354284872356</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="55">
@@ -2003,27 +2003,27 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.04878352242106648</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.8328354284872356</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="56">
@@ -2033,27 +2033,27 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.04878352242106648</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.8328354284872356</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="57">
@@ -2063,27 +2063,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.04878352242106648</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.8328354284872356</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="58">
@@ -2093,27 +2093,27 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.04440426158489741</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1.577441508485226</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="59">
@@ -2123,27 +2123,27 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.04440426158489741</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1.577441508485226</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="60">
@@ -2153,27 +2153,27 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.04440426158489741</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1.577441508485226</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="61">
@@ -2183,27 +2183,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.04440426158489741</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1.577441508485226</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="62">
@@ -2213,27 +2213,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.04440426158489741</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1.577441508485226</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="63">
@@ -2243,27 +2243,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="64">
@@ -2273,27 +2273,27 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1.186233448624317</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="65">
@@ -2303,27 +2303,27 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.9902797084819368</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="66">
@@ -2333,27 +2333,27 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="67">
@@ -2363,27 +2363,27 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="68">
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>150</v>
@@ -2402,18 +2402,18 @@
         <v>200</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="69">
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>200</v>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="70">
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>200</v>
@@ -2466,14 +2466,14 @@
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="71">
@@ -2483,27 +2483,27 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="72">
@@ -2513,27 +2513,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="73">
@@ -2543,27 +2543,27 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="74">
@@ -2573,27 +2573,27 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1.10558090894286</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="75">
@@ -2603,27 +2603,27 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="76">
@@ -2633,27 +2633,27 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="77">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>200</v>
@@ -2676,14 +2676,14 @@
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="78">
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>200</v>
@@ -2706,14 +2706,14 @@
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="79">
@@ -2723,27 +2723,27 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="80">
@@ -2753,10 +2753,10 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>200</v>
@@ -2766,14 +2766,14 @@
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="81">
@@ -2783,27 +2783,27 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="82">
@@ -2813,27 +2813,27 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1.028727855284902</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="83">
@@ -2843,27 +2843,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="84">
@@ -2873,27 +2873,27 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="85">
@@ -2903,27 +2903,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="86">
@@ -2933,27 +2933,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1.186233448624317</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="87">
@@ -2963,27 +2963,27 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="88">
@@ -2993,27 +2993,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="89">
@@ -3023,27 +3023,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="90">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>150</v>
@@ -3062,18 +3062,18 @@
         <v>200</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="91">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>150</v>
@@ -3092,18 +3092,18 @@
         <v>200</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="92">
@@ -3113,27 +3113,27 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="93">
@@ -3143,27 +3143,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.9902797084819368</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="94">
@@ -3173,27 +3173,27 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1.272635218131662</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="95">
@@ -3203,27 +3203,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1.028727855284902</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="96">
@@ -3233,27 +3233,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>700</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1.028727855284902</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="97">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>200</v>
@@ -3276,14 +3276,14 @@
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="98">
@@ -3293,27 +3293,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1.267489020997062</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="99">
@@ -3323,27 +3323,27 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1.10558090894286</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
     <row r="100">
@@ -3353,27 +3353,27 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0</v>
+        <v>-0.0723458748753751</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.9372160810466608</v>
+        <v>0.3026602104177025</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,27 +383,27 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.02261863089788084</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.3021609958647269</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="2">
@@ -413,27 +413,27 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.02261863089788084</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.3021609958647269</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="3">
@@ -443,27 +443,27 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.02261863089788084</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.3021609958647269</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="4">
@@ -473,27 +473,27 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.02261863089788084</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.3021609958647269</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="5">
@@ -503,27 +503,27 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.02261863089788084</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.3021609958647269</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="6">
@@ -533,27 +533,27 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.02261863089788084</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.3021609958647269</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="7">
@@ -563,27 +563,27 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="8">
@@ -593,27 +593,27 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="9">
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="10">
@@ -653,27 +653,27 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="11">
@@ -683,27 +683,27 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2375982127893829</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.105645159451233</v>
       </c>
     </row>
     <row r="12">
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2260937814008106</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.080521908518215</v>
       </c>
     </row>
     <row r="13">
@@ -743,27 +743,27 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2260937814008106</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.080521908518215</v>
       </c>
     </row>
     <row r="14">
@@ -773,27 +773,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2260937814008106</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.080521908518215</v>
       </c>
     </row>
     <row r="15">
@@ -803,27 +803,27 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2260937814008106</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.080521908518215</v>
       </c>
     </row>
     <row r="16">
@@ -833,27 +833,27 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2260937814008106</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.080521908518215</v>
       </c>
     </row>
     <row r="17">
@@ -863,27 +863,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2260937814008106</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.080521908518215</v>
       </c>
     </row>
     <row r="18">
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2260937814008106</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.080521908518215</v>
       </c>
     </row>
     <row r="19">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="20">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="21">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="22">
@@ -1019,10 +1019,10 @@
         <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="23">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="24">
@@ -1079,10 +1079,10 @@
         <v>150</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="25">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="26">
@@ -1139,10 +1139,10 @@
         <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="27">
@@ -1169,10 +1169,10 @@
         <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="28">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="29">
@@ -1223,16 +1223,16 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="30">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="31">
@@ -1289,10 +1289,10 @@
         <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="32">
@@ -1319,10 +1319,10 @@
         <v>150</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="33">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="34">
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="35">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="36">
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="37">
@@ -1463,16 +1463,16 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="38">
@@ -1499,10 +1499,10 @@
         <v>150</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="39">
@@ -1529,10 +1529,10 @@
         <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="40">
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="41">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="42">
@@ -1619,10 +1619,10 @@
         <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="43">
@@ -1649,10 +1649,10 @@
         <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2256006187247376</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.148878896610119</v>
       </c>
     </row>
     <row r="44">
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>150</v>
@@ -1682,18 +1682,18 @@
         <v>200</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2252698520054266</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.142138023174508</v>
       </c>
     </row>
     <row r="45">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>150</v>
@@ -1712,18 +1712,18 @@
         <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2252698520054266</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.142138023174508</v>
       </c>
     </row>
     <row r="46">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>150</v>
@@ -1742,18 +1742,18 @@
         <v>200</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2252698520054266</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.142138023174508</v>
       </c>
     </row>
     <row r="47">
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2245996401518356</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.147913963553311</v>
       </c>
     </row>
     <row r="48">
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2245996401518356</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.147913963553311</v>
       </c>
     </row>
     <row r="49">
@@ -1823,27 +1823,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2245996401518356</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.147913963553311</v>
       </c>
     </row>
     <row r="50">
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C50" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C50" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D50" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2245996401518356</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.147913963553311</v>
       </c>
     </row>
     <row r="51">
@@ -1883,27 +1883,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2243432872109393</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.1303824407048</v>
       </c>
     </row>
     <row r="52">
@@ -1913,27 +1913,27 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2243432872109393</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.1303824407048</v>
       </c>
     </row>
     <row r="53">
@@ -1943,27 +1943,27 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D53" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2240380028169702</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.991766847860993</v>
       </c>
     </row>
     <row r="54">
@@ -1973,27 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2200428081575873</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.13088841381744</v>
       </c>
     </row>
     <row r="55">
@@ -2003,27 +2003,27 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C55" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D55" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2178918809433483</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.13711965946434</v>
       </c>
     </row>
     <row r="56">
@@ -2033,27 +2033,27 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C56" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="D56" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2178918809433483</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.13711965946434</v>
       </c>
     </row>
     <row r="57">
@@ -2063,27 +2063,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2176542698479519</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.138280450953648</v>
       </c>
     </row>
     <row r="58">
@@ -2093,27 +2093,27 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2091882290144071</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.104713658806039</v>
       </c>
     </row>
     <row r="59">
@@ -2123,27 +2123,27 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2084351102964472</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.122497579313701</v>
       </c>
     </row>
     <row r="60">
@@ -2153,27 +2153,27 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2084351102964472</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.122497579313701</v>
       </c>
     </row>
     <row r="61">
@@ -2183,27 +2183,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2084351102964472</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.122497579313701</v>
       </c>
     </row>
     <row r="62">
@@ -2213,27 +2213,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2084351102964472</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.122497579313701</v>
       </c>
     </row>
     <row r="63">
@@ -2243,27 +2243,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2084351102964472</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.122497579313701</v>
       </c>
     </row>
     <row r="64">
@@ -2273,27 +2273,27 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2084351102964472</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.122497579313701</v>
       </c>
     </row>
     <row r="65">
@@ -2303,27 +2303,27 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.2084351102964472</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.122497579313701</v>
       </c>
     </row>
     <row r="66">
@@ -2333,27 +2333,27 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1941235761238311</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.070026426722869</v>
       </c>
     </row>
     <row r="67">
@@ -2363,27 +2363,27 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1934268552445403</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.067561528292186</v>
       </c>
     </row>
     <row r="68">
@@ -2393,27 +2393,27 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1934268552445403</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.067561528292186</v>
       </c>
     </row>
     <row r="69">
@@ -2423,27 +2423,27 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1934268552445403</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.067561528292186</v>
       </c>
     </row>
     <row r="70">
@@ -2453,27 +2453,27 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1917782300424008</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.062111722117706</v>
       </c>
     </row>
     <row r="71">
@@ -2483,27 +2483,27 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1917782300424008</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.062111722117706</v>
       </c>
     </row>
     <row r="72">
@@ -2513,27 +2513,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1917782300424008</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.062111722117706</v>
       </c>
     </row>
     <row r="73">
@@ -2543,27 +2543,27 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1917782300424008</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.062111722117706</v>
       </c>
     </row>
     <row r="74">
@@ -2573,27 +2573,27 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1917782300424008</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.062111722117706</v>
       </c>
     </row>
     <row r="75">
@@ -2603,27 +2603,27 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1917782300424008</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.062111722117706</v>
       </c>
     </row>
     <row r="76">
@@ -2633,27 +2633,27 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1854310109720958</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.010016679772883</v>
       </c>
     </row>
     <row r="77">
@@ -2663,27 +2663,27 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1819513182163064</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>1.027681741557862</v>
       </c>
     </row>
     <row r="78">
@@ -2693,27 +2693,27 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.157249784248493</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.9922860926842825</v>
       </c>
     </row>
     <row r="79">
@@ -2723,27 +2723,27 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.157249784248493</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.9922860926842825</v>
       </c>
     </row>
     <row r="80">
@@ -2753,27 +2753,27 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.157249784248493</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.9922860926842825</v>
       </c>
     </row>
     <row r="81">
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>200</v>
@@ -2796,14 +2796,14 @@
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1230255922012378</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.9048913295042762</v>
       </c>
     </row>
     <row r="82">
@@ -2813,10 +2813,10 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>200</v>
@@ -2826,14 +2826,14 @@
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1230255922012378</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.9048913295042762</v>
       </c>
     </row>
     <row r="83">
@@ -2843,10 +2843,10 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>200</v>
@@ -2856,14 +2856,14 @@
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.1230255922012378</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.9048913295042762</v>
       </c>
     </row>
     <row r="84">
@@ -2873,27 +2873,27 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.07440143306444946</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.8931159990778167</v>
       </c>
     </row>
     <row r="85">
@@ -2903,27 +2903,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.07440143306444946</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.8931159990778167</v>
       </c>
     </row>
     <row r="86">
@@ -2933,27 +2933,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.0626948235405987</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.8750345442358557</v>
       </c>
     </row>
     <row r="87">
@@ -2963,10 +2963,10 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>200</v>
@@ -2976,14 +2976,14 @@
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.0561959498849091</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.8162516494270433</v>
       </c>
     </row>
     <row r="88">
@@ -2993,27 +2993,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="89">
@@ -3023,27 +3023,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="90">
@@ -3053,27 +3053,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="91">
@@ -3083,27 +3083,27 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="92">
@@ -3113,27 +3113,27 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="93">
@@ -3143,27 +3143,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="94">
@@ -3173,27 +3173,27 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="95">
@@ -3203,27 +3203,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.05234991781459647</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.7709809797032198</v>
       </c>
     </row>
     <row r="96">
@@ -3233,27 +3233,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.03994961675896671</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.8187181500282272</v>
       </c>
     </row>
     <row r="97">
@@ -3263,27 +3263,27 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.03994961675896671</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.8187181500282272</v>
       </c>
     </row>
     <row r="98">
@@ -3293,27 +3293,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.03188793754061878</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6696282024821837</v>
       </c>
     </row>
     <row r="99">
@@ -3323,27 +3323,27 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.03089774180981113</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6632821852441134</v>
       </c>
     </row>
     <row r="100">
@@ -3353,27 +3353,27 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter</t>
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>-0.0723458748753751</v>
+        <v>0.03089774180981113</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.3026602104177025</v>
+        <v>0.6632821852441134</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,27 +383,27 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="2">
@@ -413,27 +413,27 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="3">
@@ -443,27 +443,27 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="4">
@@ -473,27 +473,27 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="5">
@@ -503,27 +503,27 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="6">
@@ -533,27 +533,27 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="7">
@@ -563,27 +563,27 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="8">
@@ -593,27 +593,27 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="9">
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="10">
@@ -653,27 +653,27 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="11">
@@ -686,24 +686,24 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.2375982127893829</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1.105645159451233</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="12">
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.2260937814008106</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1.080521908518215</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="13">
@@ -743,27 +743,27 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.2260937814008106</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1.080521908518215</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="14">
@@ -773,27 +773,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.2260937814008106</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1.080521908518215</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="15">
@@ -803,27 +803,27 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2260937814008106</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1.080521908518215</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="16">
@@ -836,24 +836,24 @@
         <v>10</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2260937814008106</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1.080521908518215</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="17">
@@ -863,27 +863,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2260937814008106</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1.080521908518215</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="18">
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.2260937814008106</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1.080521908518215</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="19">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
@@ -940,10 +940,10 @@
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="20">
@@ -953,16 +953,16 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="21">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="22">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>600</v>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="23">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="24">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
@@ -1090,10 +1090,10 @@
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="25">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="26">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="27">
@@ -1163,16 +1163,16 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="28">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="29">
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="30">
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="31">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>600</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="32">
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="33">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="34">
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="35">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="36">
@@ -1433,16 +1433,16 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="37">
@@ -1463,16 +1463,16 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="38">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="39">
@@ -1523,16 +1523,16 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="40">
@@ -1553,16 +1553,16 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
@@ -1570,10 +1570,10 @@
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="41">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="42">
@@ -1613,16 +1613,16 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="43">
@@ -1643,16 +1643,16 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.2256006187247376</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1.148878896610119</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="44">
@@ -1673,27 +1673,27 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.2252698520054266</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1.142138023174508</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="45">
@@ -1703,27 +1703,27 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.2252698520054266</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1.142138023174508</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="46">
@@ -1733,27 +1733,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.2252698520054266</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1.142138023174508</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="47">
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.2245996401518356</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1.147913963553311</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="48">
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.2245996401518356</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1.147913963553311</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="49">
@@ -1823,27 +1823,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.2245996401518356</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1.147913963553311</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="50">
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.2245996401518356</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1.147913963553311</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="51">
@@ -1883,27 +1883,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.2243432872109393</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1.1303824407048</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="52">
@@ -1913,27 +1913,27 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>0.2243432872109393</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1.1303824407048</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="53">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>130</v>
@@ -1952,18 +1952,18 @@
         <v>300</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>0.2240380028169702</v>
+        <v>1.1327699761026</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.991766847860993</v>
+        <v>0.1925132539155783</v>
       </c>
     </row>
     <row r="54">
@@ -1973,27 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>0.2200428081575873</v>
+        <v>1.043952471110754</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1.13088841381744</v>
+        <v>0.1800402363869646</v>
       </c>
     </row>
     <row r="55">
@@ -2003,16 +2003,16 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>0.2178918809433483</v>
+        <v>1.043952471110754</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1.13711965946434</v>
+        <v>0.1800402363869646</v>
       </c>
     </row>
     <row r="56">
@@ -2036,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>0.2178918809433483</v>
+        <v>1.043952471110754</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1.13711965946434</v>
+        <v>0.1800402363869646</v>
       </c>
     </row>
     <row r="57">
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>550</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>0.2176542698479519</v>
+        <v>1.043952471110754</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1.138280450953648</v>
+        <v>0.1800402363869646</v>
       </c>
     </row>
     <row r="58">
@@ -2093,16 +2093,16 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C58" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D58" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>0.2091882290144071</v>
+        <v>1.043952471110754</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1.104713658806039</v>
+        <v>0.1800402363869646</v>
       </c>
     </row>
     <row r="59">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D59" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>0.2084351102964472</v>
+        <v>1.043952471110754</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1.122497579313701</v>
+        <v>0.1800402363869646</v>
       </c>
     </row>
     <row r="60">
@@ -2153,16 +2153,16 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C60" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D60" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0.2084351102964472</v>
+        <v>1.043952471110754</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1.122497579313701</v>
+        <v>0.1800402363869646</v>
       </c>
     </row>
     <row r="61">
@@ -2183,27 +2183,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C61" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D61" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>0.2084351102964472</v>
+        <v>1.03419216018902</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1.122497579313701</v>
+        <v>0.206665133825527</v>
       </c>
     </row>
     <row r="62">
@@ -2213,27 +2213,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C62" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D62" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>0.2084351102964472</v>
+        <v>1.03419216018902</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1.122497579313701</v>
+        <v>0.206665133825527</v>
       </c>
     </row>
     <row r="63">
@@ -2243,27 +2243,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C63" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D63" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>0.2084351102964472</v>
+        <v>1.019012132433608</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1.122497579313701</v>
+        <v>0.1954469684487564</v>
       </c>
     </row>
     <row r="64">
@@ -2273,16 +2273,16 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D64" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.2084351102964472</v>
+        <v>0.9750367964684676</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1.122497579313701</v>
+        <v>0.154116020643822</v>
       </c>
     </row>
     <row r="65">
@@ -2303,16 +2303,16 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D65" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.2084351102964472</v>
+        <v>0.9750367964684676</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1.122497579313701</v>
+        <v>0.154116020643822</v>
       </c>
     </row>
     <row r="66">
@@ -2333,27 +2333,27 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C66" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D66" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.1941235761238311</v>
+        <v>0.9750367964684676</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1.070026426722869</v>
+        <v>0.154116020643822</v>
       </c>
     </row>
     <row r="67">
@@ -2363,27 +2363,27 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="D67" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.1934268552445403</v>
+        <v>0.9750367964684676</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1.067561528292186</v>
+        <v>0.154116020643822</v>
       </c>
     </row>
     <row r="68">
@@ -2393,27 +2393,27 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.1934268552445403</v>
+        <v>0.9247398908928383</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1.067561528292186</v>
+        <v>0.2508544423458689</v>
       </c>
     </row>
     <row r="69">
@@ -2423,27 +2423,27 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.1934268552445403</v>
+        <v>0.9194632804429046</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1.067561528292186</v>
+        <v>0.200838108426977</v>
       </c>
     </row>
     <row r="70">
@@ -2453,27 +2453,27 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.1917782300424008</v>
+        <v>0.9194632804429046</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1.062111722117706</v>
+        <v>0.200838108426977</v>
       </c>
     </row>
     <row r="71">
@@ -2483,27 +2483,27 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.1917782300424008</v>
+        <v>0.9194632804429046</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1.062111722117706</v>
+        <v>0.200838108426977</v>
       </c>
     </row>
     <row r="72">
@@ -2513,27 +2513,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.1917782300424008</v>
+        <v>0.9194632804429046</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1.062111722117706</v>
+        <v>0.200838108426977</v>
       </c>
     </row>
     <row r="73">
@@ -2543,16 +2543,16 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.1917782300424008</v>
+        <v>0.9046564873107019</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1.062111722117706</v>
+        <v>0.2960193114600882</v>
       </c>
     </row>
     <row r="74">
@@ -2573,27 +2573,27 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.1917782300424008</v>
+        <v>0.9037947824504795</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1.062111722117706</v>
+        <v>0.1795610746328801</v>
       </c>
     </row>
     <row r="75">
@@ -2603,27 +2603,27 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.1917782300424008</v>
+        <v>0.9037947824504795</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1.062111722117706</v>
+        <v>0.1795610746328801</v>
       </c>
     </row>
     <row r="76">
@@ -2636,24 +2636,24 @@
         <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D76" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E76" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="E76" s="0" t="n">
-        <v>800</v>
-      </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
           <t>6month charter</t>
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.1854310109720958</v>
+        <v>0.9037947824504795</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1.010016679772883</v>
+        <v>0.1795610746328801</v>
       </c>
     </row>
     <row r="77">
@@ -2663,27 +2663,27 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.1819513182163064</v>
+        <v>0.9037947824504795</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1.027681741557862</v>
+        <v>0.1795610746328801</v>
       </c>
     </row>
     <row r="78">
@@ -2693,27 +2693,27 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>600</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.157249784248493</v>
+        <v>0.9037947824504795</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.9922860926842825</v>
+        <v>0.1795610746328801</v>
       </c>
     </row>
     <row r="79">
@@ -2723,27 +2723,27 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>600</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>6month charter</t>
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.157249784248493</v>
+        <v>0.9037947824504795</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.9922860926842825</v>
+        <v>0.1795610746328801</v>
       </c>
     </row>
     <row r="80">
@@ -2753,16 +2753,16 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.157249784248493</v>
+        <v>0.7476573351765203</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.9922860926842825</v>
+        <v>0.1277121906606214</v>
       </c>
     </row>
     <row r="81">
@@ -2783,27 +2783,27 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.1230255922012378</v>
+        <v>0.7476573351765203</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.9048913295042762</v>
+        <v>0.1277121906606214</v>
       </c>
     </row>
     <row r="82">
@@ -2813,27 +2813,27 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.1230255922012378</v>
+        <v>0.7476573351765203</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.9048913295042762</v>
+        <v>0.1277121906606214</v>
       </c>
     </row>
     <row r="83">
@@ -2843,27 +2843,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>3month charter</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.1230255922012378</v>
+        <v>0.7476573351765203</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.9048913295042762</v>
+        <v>0.1277121906606214</v>
       </c>
     </row>
     <row r="84">
@@ -2873,16 +2873,16 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.07440143306444946</v>
+        <v>0.7476573351765203</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.8931159990778167</v>
+        <v>0.1277121906606214</v>
       </c>
     </row>
     <row r="85">
@@ -2903,27 +2903,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.07440143306444946</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.8931159990778167</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="86">
@@ -2933,27 +2933,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.0626948235405987</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.8750345442358557</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="87">
@@ -2963,27 +2963,27 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.0561959498849091</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.8162516494270433</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="88">
@@ -2993,27 +2993,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="89">
@@ -3023,27 +3023,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>650</v>
+        <v>1500</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="90">
@@ -3053,27 +3053,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="91">
@@ -3083,27 +3083,27 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="92">
@@ -3113,27 +3113,27 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="93">
@@ -3143,27 +3143,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="94">
@@ -3173,27 +3173,27 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="95">
@@ -3203,27 +3203,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.05234991781459647</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.7709809797032198</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="96">
@@ -3233,27 +3233,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.03994961675896671</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.8187181500282272</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="97">
@@ -3263,27 +3263,27 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>1100</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.03994961675896671</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.8187181500282272</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="98">
@@ -3293,27 +3293,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.03188793754061878</v>
+        <v>0.7357630310543921</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.6696282024821837</v>
+        <v>0.07357264320187878</v>
       </c>
     </row>
     <row r="99">
@@ -3323,16 +3323,16 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.03089774180981113</v>
+        <v>0.7291162015662974</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.6632821852441134</v>
+        <v>0.1212965293460148</v>
       </c>
     </row>
     <row r="100">
@@ -3353,27 +3353,27 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>1300</v>
+        <v>650</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.03089774180981113</v>
+        <v>0.7203397331870348</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.6632821852441134</v>
+        <v>0.08217743755743591</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -383,27 +383,27 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="2">
@@ -413,27 +413,27 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="3">
@@ -443,27 +443,27 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>130</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="4">
@@ -473,27 +473,27 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="5">
@@ -503,27 +503,27 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="6">
@@ -533,27 +533,27 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D6" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="7">
@@ -563,27 +563,27 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="8">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>130</v>
@@ -602,18 +602,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="9">
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="10">
@@ -653,27 +653,27 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="11">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -696,14 +696,14 @@
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.4664759070038142</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.2702370472584894</v>
       </c>
     </row>
     <row r="12">
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="13">
@@ -746,24 +746,24 @@
         <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="14">
@@ -773,27 +773,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="15">
@@ -803,27 +803,27 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="16">
@@ -833,27 +833,27 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="17">
@@ -863,27 +863,27 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="18">
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="19">
@@ -923,27 +923,27 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="20">
@@ -953,27 +953,27 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="21">
@@ -983,27 +983,27 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="22">
@@ -1016,24 +1016,24 @@
         <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="23">
@@ -1043,27 +1043,27 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="24">
@@ -1073,27 +1073,27 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="25">
@@ -1103,27 +1103,27 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="26">
@@ -1133,27 +1133,27 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="27">
@@ -1163,27 +1163,27 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="28">
@@ -1193,27 +1193,27 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="29">
@@ -1226,24 +1226,24 @@
         <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="30">
@@ -1256,24 +1256,24 @@
         <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="31">
@@ -1286,24 +1286,24 @@
         <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="32">
@@ -1313,27 +1313,27 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="33">
@@ -1343,27 +1343,27 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="34">
@@ -1373,27 +1373,27 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="35">
@@ -1403,27 +1403,27 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="36">
@@ -1433,27 +1433,27 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="37">
@@ -1463,27 +1463,27 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="38">
@@ -1493,27 +1493,27 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="39">
@@ -1523,27 +1523,27 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="40">
@@ -1553,27 +1553,27 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="41">
@@ -1586,24 +1586,24 @@
         <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="42">
@@ -1613,27 +1613,27 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="43">
@@ -1643,27 +1643,27 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="44">
@@ -1673,27 +1673,27 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="45">
@@ -1706,24 +1706,24 @@
         <v>0</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="46">
@@ -1733,27 +1733,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="47">
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="48">
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="49">
@@ -1823,27 +1823,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="50">
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="51">
@@ -1883,27 +1883,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="52">
@@ -1913,27 +1913,27 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="53">
@@ -1943,27 +1943,27 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1.1327699761026</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.1925132539155783</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="54">
@@ -1973,27 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1.043952471110754</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.1800402363869646</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="55">
@@ -2006,24 +2006,24 @@
         <v>0</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1.043952471110754</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.1800402363869646</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="56">
@@ -2033,27 +2033,27 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1.043952471110754</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.1800402363869646</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="57">
@@ -2063,27 +2063,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1.043952471110754</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.1800402363869646</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="58">
@@ -2096,24 +2096,24 @@
         <v>0</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1.043952471110754</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.1800402363869646</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="59">
@@ -2126,24 +2126,24 @@
         <v>0</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1.043952471110754</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.1800402363869646</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="60">
@@ -2153,27 +2153,27 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1.043952471110754</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.1800402363869646</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="61">
@@ -2183,27 +2183,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1.03419216018902</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.206665133825527</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="62">
@@ -2213,27 +2213,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1.03419216018902</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.206665133825527</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="63">
@@ -2243,27 +2243,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1.019012132433608</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.1954469684487564</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="64">
@@ -2276,24 +2276,24 @@
         <v>0</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>0.9750367964684676</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.154116020643822</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="65">
@@ -2306,24 +2306,24 @@
         <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>0.9750367964684676</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.154116020643822</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="66">
@@ -2336,24 +2336,24 @@
         <v>0</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>0.9750367964684676</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.154116020643822</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="67">
@@ -2366,24 +2366,24 @@
         <v>0</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0.9750367964684676</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.154116020643822</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="68">
@@ -2393,27 +2393,27 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>0.9247398908928383</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.2508544423458689</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="69">
@@ -2426,24 +2426,24 @@
         <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>0.9194632804429046</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.200838108426977</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="70">
@@ -2456,24 +2456,24 @@
         <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>0.9194632804429046</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.200838108426977</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="71">
@@ -2486,24 +2486,24 @@
         <v>0</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>0.9194632804429046</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.200838108426977</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="72">
@@ -2516,24 +2516,24 @@
         <v>0</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>0.9194632804429046</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.200838108426977</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="73">
@@ -2543,16 +2543,16 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
@@ -2560,10 +2560,10 @@
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>0.9046564873107019</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.2960193114600882</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="74">
@@ -2576,24 +2576,24 @@
         <v>0</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>0.9037947824504795</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.1795610746328801</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="75">
@@ -2606,24 +2606,24 @@
         <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>0.9037947824504795</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.1795610746328801</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="76">
@@ -2636,24 +2636,24 @@
         <v>0</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>0.9037947824504795</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.1795610746328801</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="77">
@@ -2666,24 +2666,24 @@
         <v>0</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>0.9037947824504795</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.1795610746328801</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="78">
@@ -2696,24 +2696,24 @@
         <v>0</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>0.9037947824504795</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.1795610746328801</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="79">
@@ -2726,24 +2726,24 @@
         <v>0</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>6month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>0.9037947824504795</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.1795610746328801</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="80">
@@ -2753,27 +2753,27 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>0.7476573351765203</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.1277121906606214</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="81">
@@ -2783,27 +2783,27 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>0.7476573351765203</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.1277121906606214</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="82">
@@ -2813,27 +2813,27 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>0.7476573351765203</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.1277121906606214</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="83">
@@ -2843,27 +2843,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>0.7476573351765203</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.1277121906606214</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="84">
@@ -2873,27 +2873,27 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>3month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>0.7476573351765203</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.1277121906606214</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="85">
@@ -2903,16 +2903,16 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
@@ -2920,10 +2920,10 @@
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="86">
@@ -2933,16 +2933,16 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="87">
@@ -2963,16 +2963,16 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
@@ -2980,10 +2980,10 @@
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="88">
@@ -2993,16 +2993,16 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="89">
@@ -3023,16 +3023,16 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
@@ -3040,10 +3040,10 @@
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="90">
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="91">
@@ -3083,16 +3083,16 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
@@ -3100,10 +3100,10 @@
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="92">
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
@@ -3130,10 +3130,10 @@
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="93">
@@ -3143,16 +3143,16 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
@@ -3160,10 +3160,10 @@
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="94">
@@ -3173,16 +3173,16 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="95">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
@@ -3220,10 +3220,10 @@
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="96">
@@ -3233,16 +3233,16 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
@@ -3250,10 +3250,10 @@
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="97">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="98">
@@ -3293,16 +3293,16 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.7357630310543921</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.07357264320187878</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="99">
@@ -3323,27 +3323,27 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>12month charter</t>
+          <t>36month charter</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.7291162015662974</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.1212965293460148</v>
+        <v>0.1436519900273058</v>
       </c>
     </row>
     <row r="100">
@@ -3353,16 +3353,16 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
@@ -3370,10 +3370,3010 @@
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.7203397331870348</v>
+        <v>-0.5561018634955364</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.08217743755743591</v>
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>rule101</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>rule102</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>rule103</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F103" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>rule104</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>rule105</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>rule106</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>rule107</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F107" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>rule108</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>rule109</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>rule110</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>rule111</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>rule112</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>rule113</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>rule114</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>rule115</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>rule116</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>rule117</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>rule118</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>rule119</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>rule120</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>rule121</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>rule122</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>rule123</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>rule124</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>rule125</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>rule126</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>rule127</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>rule128</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F128" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>rule129</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F129" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>rule130</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F130" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>rule131</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F131" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>rule132</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F132" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>rule133</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F133" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>rule134</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F134" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>rule135</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F135" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>rule136</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F136" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>rule137</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F137" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>rule138</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F138" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>rule139</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F139" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>rule140</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F140" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>rule141</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F141" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>rule142</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F142" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>rule143</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F143" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>rule144</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F144" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>rule145</t>
+        </is>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F145" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>rule146</t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F146" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>rule147</t>
+        </is>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F147" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>rule148</t>
+        </is>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F148" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>rule149</t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F149" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>rule150</t>
+        </is>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F150" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>rule151</t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F151" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>rule152</t>
+        </is>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F152" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>rule153</t>
+        </is>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F153" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>rule154</t>
+        </is>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F154" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>rule155</t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F155" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>rule156</t>
+        </is>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F156" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>rule157</t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F157" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>rule158</t>
+        </is>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F158" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>rule159</t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F159" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>rule160</t>
+        </is>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F160" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>rule161</t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F161" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>rule162</t>
+        </is>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F162" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>rule163</t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F163" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>rule164</t>
+        </is>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F164" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>rule165</t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F165" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>rule166</t>
+        </is>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F166" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>rule167</t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F167" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>rule168</t>
+        </is>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F168" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>rule169</t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F169" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>rule170</t>
+        </is>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F170" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>rule171</t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F171" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>rule172</t>
+        </is>
+      </c>
+      <c r="B172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F172" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>rule173</t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F173" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>rule174</t>
+        </is>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F174" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>rule175</t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F175" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>rule176</t>
+        </is>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F176" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>rule177</t>
+        </is>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F177" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>rule178</t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F178" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>rule179</t>
+        </is>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F179" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>rule180</t>
+        </is>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F180" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>rule181</t>
+        </is>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F181" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>rule182</t>
+        </is>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F182" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>rule183</t>
+        </is>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F183" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>rule184</t>
+        </is>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F184" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>rule185</t>
+        </is>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F185" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>rule186</t>
+        </is>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F186" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>rule187</t>
+        </is>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F187" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>rule188</t>
+        </is>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F188" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>rule189</t>
+        </is>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F189" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>rule190</t>
+        </is>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F190" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>rule191</t>
+        </is>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F191" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>rule192</t>
+        </is>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F192" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>rule193</t>
+        </is>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F193" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>rule194</t>
+        </is>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F194" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>rule195</t>
+        </is>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F195" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>rule196</t>
+        </is>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F196" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>rule197</t>
+        </is>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F197" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>rule198</t>
+        </is>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F198" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>rule199</t>
+        </is>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F199" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>0.1436519900273058</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>rule200</t>
+        </is>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="F200" s="0" t="inlineStr">
+        <is>
+          <t>36month charter</t>
+        </is>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>-0.5561018634955364</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>0.1436519900273058</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,27 +383,27 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G1" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="2">
@@ -413,27 +413,27 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="3">
@@ -443,27 +443,27 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="4">
@@ -473,27 +473,27 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="5">
@@ -503,27 +503,27 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="6">
@@ -533,27 +533,27 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="7">
@@ -563,27 +563,27 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="8">
@@ -593,27 +593,27 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G8" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="9">
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G9" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2937630011983127</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.851304439905139</v>
       </c>
     </row>
     <row r="10">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>120</v>
@@ -662,18 +662,18 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G10" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2751184132267329</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.8465122260537068</v>
       </c>
     </row>
     <row r="11">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>120</v>
@@ -692,18 +692,18 @@
         <v>0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 50 ships</t>
         </is>
       </c>
       <c r="G11" s="0" t="n">
-        <v>-0.4664759070038142</v>
+        <v>0.2751184132267329</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.2702370472584894</v>
+        <v>0.8465122260537068</v>
       </c>
     </row>
     <row r="12">
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 80 ships</t>
         </is>
       </c>
       <c r="G12" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2611558580009901</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.8482360250139458</v>
       </c>
     </row>
     <row r="13">
@@ -743,27 +743,27 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 80 ships</t>
         </is>
       </c>
       <c r="G13" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2611558580009901</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.8482360250139458</v>
       </c>
     </row>
     <row r="14">
@@ -773,27 +773,27 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 80 ships</t>
         </is>
       </c>
       <c r="G14" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2611558580009901</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.8482360250139458</v>
       </c>
     </row>
     <row r="15">
@@ -803,27 +803,27 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 80 ships</t>
         </is>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2321603868687983</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.7467474812738814</v>
       </c>
     </row>
     <row r="16">
@@ -836,24 +836,24 @@
         <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 40 ships</t>
         </is>
       </c>
       <c r="G16" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2260320887367259</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.644153411414379</v>
       </c>
     </row>
     <row r="17">
@@ -866,24 +866,24 @@
         <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 40 ships</t>
         </is>
       </c>
       <c r="G17" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2260320887367259</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.644153411414379</v>
       </c>
     </row>
     <row r="18">
@@ -896,24 +896,24 @@
         <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 40 ships</t>
         </is>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2260320887367259</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.644153411414379</v>
       </c>
     </row>
     <row r="19">
@@ -926,24 +926,24 @@
         <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 40 ships</t>
         </is>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2260320887367259</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.644153411414379</v>
       </c>
     </row>
     <row r="20">
@@ -956,24 +956,24 @@
         <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 40 ships</t>
         </is>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2260320887367259</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.644153411414379</v>
       </c>
     </row>
     <row r="21">
@@ -986,24 +986,24 @@
         <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 40 ships</t>
         </is>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2108794153447947</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.5580642180286717</v>
       </c>
     </row>
     <row r="22">
@@ -1016,24 +1016,24 @@
         <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 40 ships</t>
         </is>
       </c>
       <c r="G22" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2108794153447947</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.5580642180286717</v>
       </c>
     </row>
     <row r="23">
@@ -1043,27 +1043,27 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 50 ships</t>
         </is>
       </c>
       <c r="G23" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02936033046007909</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.024226656655139</v>
       </c>
     </row>
     <row r="24">
@@ -1073,27 +1073,27 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 50 ships</t>
         </is>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02936033046007909</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.024226656655139</v>
       </c>
     </row>
     <row r="25">
@@ -1103,27 +1103,27 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 50 ships</t>
         </is>
       </c>
       <c r="G25" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02936033046007909</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.024226656655139</v>
       </c>
     </row>
     <row r="26">
@@ -1133,27 +1133,27 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 50 ships</t>
         </is>
       </c>
       <c r="G26" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02936033046007909</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.024226656655139</v>
       </c>
     </row>
     <row r="27">
@@ -1163,27 +1163,27 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 80 ships</t>
         </is>
       </c>
       <c r="G27" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02908930985557262</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.022806062446561</v>
       </c>
     </row>
     <row r="28">
@@ -1193,27 +1193,27 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 80 ships</t>
         </is>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02908930985557262</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.022806062446561</v>
       </c>
     </row>
     <row r="29">
@@ -1223,27 +1223,27 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 80 ships</t>
         </is>
       </c>
       <c r="G29" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02908930985557262</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.022806062446561</v>
       </c>
     </row>
     <row r="30">
@@ -1253,27 +1253,27 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 80 ships</t>
         </is>
       </c>
       <c r="G30" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02908930985557262</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.022806062446561</v>
       </c>
     </row>
     <row r="31">
@@ -1283,27 +1283,27 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G31" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="32">
@@ -1313,27 +1313,27 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G32" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="33">
@@ -1343,27 +1343,27 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G33" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="34">
@@ -1373,27 +1373,27 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="35">
@@ -1403,27 +1403,27 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G35" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="36">
@@ -1433,27 +1433,27 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="37">
@@ -1463,27 +1463,27 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F37" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="38">
@@ -1493,27 +1493,27 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G38" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="39">
@@ -1523,27 +1523,27 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G39" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="40">
@@ -1553,27 +1553,27 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G40" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="41">
@@ -1583,27 +1583,27 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G41" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.0289086294525683</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.021864373952195</v>
       </c>
     </row>
     <row r="42">
@@ -1613,27 +1613,27 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G42" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02866693539277829</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.025212345909885</v>
       </c>
     </row>
     <row r="43">
@@ -1643,27 +1643,27 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G43" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02866693539277829</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.025212345909885</v>
       </c>
     </row>
     <row r="44">
@@ -1673,27 +1673,27 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G44" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02866693539277829</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.025212345909885</v>
       </c>
     </row>
     <row r="45">
@@ -1703,27 +1703,27 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G45" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02866693539277829</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.025212345909885</v>
       </c>
     </row>
     <row r="46">
@@ -1733,27 +1733,27 @@
         </is>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G46" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02866693539277829</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.025212345909885</v>
       </c>
     </row>
     <row r="47">
@@ -1763,27 +1763,27 @@
         </is>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>750</v>
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G47" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02866693539277829</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.025212345909885</v>
       </c>
     </row>
     <row r="48">
@@ -1793,27 +1793,27 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G48" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.02862731928522457</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>1.025164213591918</v>
       </c>
     </row>
     <row r="49">
@@ -1823,27 +1823,27 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G49" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.02809180348179248</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.8459223247569486</v>
       </c>
     </row>
     <row r="50">
@@ -1853,27 +1853,27 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G50" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.02809180348179248</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0.8459223247569486</v>
       </c>
     </row>
     <row r="51">
@@ -1883,27 +1883,27 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F51" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="G51" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.7737398461146661</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1913,27 +1913,27 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="G52" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.7737398461146661</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1943,27 +1943,27 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="G53" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.7737398461146661</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1973,27 +1973,27 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="G54" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.7737398461146661</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2003,27 +2003,27 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="G55" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.7737398461146661</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2033,27 +2033,27 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 25 ships</t>
         </is>
       </c>
       <c r="G56" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.6758945922321985</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2063,27 +2063,27 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 30 ships</t>
         </is>
       </c>
       <c r="G57" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.6381889557124422</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2093,27 +2093,27 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G58" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2123,27 +2123,27 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G59" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2153,27 +2153,27 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G60" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2183,27 +2183,27 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G61" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2213,27 +2213,27 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter, 70 ships</t>
         </is>
       </c>
       <c r="G62" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2243,27 +2243,27 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G63" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2273,27 +2273,27 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G64" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2303,27 +2303,27 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G65" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2333,27 +2333,27 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G66" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2363,27 +2363,27 @@
         </is>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G67" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2393,27 +2393,27 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G68" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2423,27 +2423,27 @@
         </is>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G69" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2453,27 +2453,27 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G70" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2483,27 +2483,27 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G71" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2513,27 +2513,27 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G72" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2543,27 +2543,27 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G73" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2573,27 +2573,27 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G74" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2603,27 +2603,27 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G75" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2633,27 +2633,27 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G76" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2663,27 +2663,27 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G77" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2693,27 +2693,27 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G78" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2723,27 +2723,27 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G79" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2753,27 +2753,27 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G80" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2783,27 +2783,27 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G81" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2813,27 +2813,27 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>12month charter, 70 ships</t>
         </is>
       </c>
       <c r="G82" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2843,27 +2843,27 @@
         </is>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G83" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2873,27 +2873,27 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G84" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2903,27 +2903,27 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G85" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2933,27 +2933,27 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G86" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2963,27 +2963,27 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G87" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2993,27 +2993,27 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 70 ships</t>
         </is>
       </c>
       <c r="G88" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3023,27 +3023,27 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G89" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3053,27 +3053,27 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G90" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3083,27 +3083,27 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F91" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G91" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3113,27 +3113,27 @@
         </is>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G92" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3143,27 +3143,27 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G93" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3173,27 +3173,27 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G94" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3203,27 +3203,27 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 70 ships</t>
         </is>
       </c>
       <c r="G95" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3233,27 +3233,27 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G96" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3263,27 +3263,27 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G97" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3293,27 +3293,27 @@
         </is>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G98" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3323,27 +3323,27 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G99" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3353,27 +3353,27 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>6month charter, 70 ships</t>
         </is>
       </c>
       <c r="G100" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2123579705995365</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3383,27 +3383,27 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G101" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3413,27 +3413,27 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G102" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3443,27 +3443,27 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G103" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3473,27 +3473,27 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G104" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3503,27 +3503,27 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G105" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3533,27 +3533,27 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G106" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3566,24 +3566,24 @@
         <v>0</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G107" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3593,27 +3593,27 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G108" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3626,24 +3626,24 @@
         <v>0</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G109" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3653,27 +3653,27 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G110" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3683,27 +3683,27 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G111" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3713,27 +3713,27 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G112" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3746,24 +3746,24 @@
         <v>0</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G113" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3773,27 +3773,27 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F114" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G114" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3806,24 +3806,24 @@
         <v>0</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G115" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3833,27 +3833,27 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F116" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G116" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3863,27 +3863,27 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G117" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3893,27 +3893,27 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G118" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3923,27 +3923,27 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G119" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3953,27 +3953,27 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F120" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G120" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3983,27 +3983,27 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G121" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4013,27 +4013,27 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G122" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4046,24 +4046,24 @@
         <v>0</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F123" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G123" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4073,27 +4073,27 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F124" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G124" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4103,27 +4103,27 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F125" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G125" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4136,24 +4136,24 @@
         <v>0</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F126" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G126" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4166,24 +4166,24 @@
         <v>0</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F127" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G127" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4193,27 +4193,27 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F128" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G128" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4223,27 +4223,27 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F129" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G129" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4256,24 +4256,24 @@
         <v>0</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F130" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G130" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4286,24 +4286,24 @@
         <v>0</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F131" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G131" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4313,27 +4313,27 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F132" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G132" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4343,27 +4343,27 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F133" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G133" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -4373,27 +4373,27 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F134" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G134" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4406,24 +4406,24 @@
         <v>0</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F135" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G135" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4433,27 +4433,27 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F136" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G136" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4466,24 +4466,24 @@
         <v>0</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F137" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G137" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4493,27 +4493,27 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F138" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G138" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4523,27 +4523,27 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F139" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G139" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4553,27 +4553,27 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F140" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G140" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4583,27 +4583,27 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F141" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G141" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4613,27 +4613,27 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F142" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G142" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4643,27 +4643,27 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F143" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G143" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4673,27 +4673,27 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F144" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G144" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -4706,24 +4706,24 @@
         <v>0</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F145" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G145" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -4736,24 +4736,24 @@
         <v>0</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="F146" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G146" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -4763,27 +4763,27 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F147" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="G147" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.524664681269002</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4796,24 +4796,24 @@
         <v>0</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F148" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G148" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -4826,24 +4826,24 @@
         <v>0</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F149" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G149" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -4856,24 +4856,24 @@
         <v>0</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F150" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G150" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -4886,24 +4886,24 @@
         <v>0</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F151" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G151" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4916,24 +4916,24 @@
         <v>0</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F152" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G152" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -4946,24 +4946,24 @@
         <v>0</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F153" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G153" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -4976,24 +4976,24 @@
         <v>0</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F154" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G154" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -5006,24 +5006,24 @@
         <v>0</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F155" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G155" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -5036,24 +5036,24 @@
         <v>0</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F156" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G156" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -5066,24 +5066,24 @@
         <v>0</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F157" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G157" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5096,24 +5096,24 @@
         <v>0</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F158" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G158" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5126,24 +5126,24 @@
         <v>0</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F159" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G159" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -5156,24 +5156,24 @@
         <v>0</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F160" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G160" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -5186,24 +5186,24 @@
         <v>0</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F161" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G161" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -5216,24 +5216,24 @@
         <v>0</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F162" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G162" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -5246,24 +5246,24 @@
         <v>0</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F163" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G163" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5276,24 +5276,24 @@
         <v>0</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F164" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G164" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -5306,24 +5306,24 @@
         <v>0</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F165" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G165" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -5336,24 +5336,24 @@
         <v>0</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F166" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G166" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5366,24 +5366,24 @@
         <v>0</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F167" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G167" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -5396,24 +5396,24 @@
         <v>0</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F168" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 60 ships</t>
         </is>
       </c>
       <c r="G168" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>0.2487169473398494</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -5426,24 +5426,24 @@
         <v>0</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F169" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G169" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5453,27 +5453,27 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F170" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G170" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5483,27 +5483,27 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F171" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G171" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -5516,24 +5516,24 @@
         <v>0</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F172" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G172" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5546,24 +5546,24 @@
         <v>0</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F173" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G173" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -5573,27 +5573,27 @@
         </is>
       </c>
       <c r="B174" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F174" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="G174" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5606,24 +5606,24 @@
         <v>0</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F175" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G175" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -5636,24 +5636,24 @@
         <v>0</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F176" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G176" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -5666,24 +5666,24 @@
         <v>0</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F177" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G177" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -5696,24 +5696,24 @@
         <v>0</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F178" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G178" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -5723,27 +5723,27 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F179" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G179" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -5753,27 +5753,27 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F180" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G180" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -5786,24 +5786,24 @@
         <v>0</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F181" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G181" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -5816,24 +5816,24 @@
         <v>0</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F182" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G182" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -5846,24 +5846,24 @@
         <v>0</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F183" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G183" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -5876,24 +5876,24 @@
         <v>0</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F184" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G184" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -5906,24 +5906,24 @@
         <v>0</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F185" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G185" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5936,24 +5936,24 @@
         <v>0</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F186" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G186" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5963,27 +5963,27 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F187" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G187" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -5996,24 +5996,24 @@
         <v>0</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F188" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G188" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -6026,24 +6026,24 @@
         <v>0</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F189" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G189" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -6053,27 +6053,27 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F190" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G190" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -6083,27 +6083,27 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F191" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G191" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -6116,24 +6116,24 @@
         <v>0</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F192" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G192" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -6146,24 +6146,24 @@
         <v>0</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F193" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G193" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -6173,27 +6173,27 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="F194" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G194" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -6206,24 +6206,24 @@
         <v>0</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F195" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G195" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -6236,24 +6236,24 @@
         <v>0</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F196" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G196" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -6266,24 +6266,24 @@
         <v>0</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F197" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G197" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -6296,24 +6296,24 @@
         <v>0</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F198" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G198" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -6326,24 +6326,24 @@
         <v>0</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F199" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G199" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6353,27 +6353,27 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="F200" s="0" t="inlineStr">
         <is>
-          <t>36month charter</t>
+          <t>3month charter, 100 ships</t>
         </is>
       </c>
       <c r="G200" s="0" t="n">
-        <v>-0.5561018634955364</v>
+        <v>-0.1079279733531047</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>0.1436519900273058</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -368,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:J400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -383,27 +383,33 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
+        <v>1100</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
       </c>
-      <c r="G1" s="0" t="n">
-        <v>88.79088940247391</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>13406.41926121437</v>
+      <c r="I1" s="0" t="n">
+        <v>0.9865476740040086</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -413,27 +419,33 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
+        <v>1100</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
         <is>
           <t>3month charter, 10 ships</t>
         </is>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>88.79088940247391</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>13406.41926121437</v>
+      <c r="I2" s="0" t="n">
+        <v>0.9865476740040086</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -443,27 +455,33 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>88.79088940247391</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>13406.41926121437</v>
+        <v>120</v>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -473,27 +491,33 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>88.79088940247391</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>13406.41926121437</v>
+        <v>120</v>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -503,27 +527,33 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>88.79088940247391</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>13406.41926121437</v>
+        <v>120</v>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -533,27 +563,33 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>88.79088940247391</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>13406.41926121437</v>
+        <v>120</v>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -563,27 +599,33 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>84.41917097689691</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>12755.25989145161</v>
+        <v>120</v>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -593,27 +635,33 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>84.41917097689691</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>12755.25989145161</v>
+        <v>120</v>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -623,27 +671,33 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>84.41917097689691</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>12755.25989145161</v>
+        <v>120</v>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -653,27 +707,33 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>84.41917097689691</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>12755.25989145161</v>
+        <v>120</v>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -686,24 +746,30 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>80.50182188851917</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>12724.05256385261</v>
+        <v>120</v>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -716,24 +782,30 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>80.50182188851917</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>12724.05256385261</v>
+        <v>120</v>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -743,27 +815,33 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 20 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>79.64838969120889</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>12185.41309361629</v>
+        <v>120</v>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.9545838283544081</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -773,27 +851,33 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+      <c r="F14" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>60.9576730845602</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>11144.47975027076</v>
+        <v>150</v>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -803,27 +887,33 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+      <c r="F15" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>60.93072568287241</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>11126.11828789242</v>
+        <v>110</v>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -833,27 +923,33 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+      <c r="F16" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>60.93072568287241</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>11126.11828789242</v>
+        <v>150</v>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -863,27 +959,33 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+      <c r="F17" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>60.93072568287241</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>11126.11828789242</v>
+        <v>110</v>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -893,27 +995,33 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1300</v>
       </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+      <c r="F18" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>60.36975121415834</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>10715.78325503953</v>
+        <v>150</v>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.5157015114487719</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -923,27 +1031,33 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>45.92979777673225</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>14549.02944013544</v>
+        <v>110</v>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.2669086408774083</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -956,24 +1070,30 @@
         <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>44.53475727321948</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>14717.30619087737</v>
+        <v>110</v>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.2669086408774083</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -983,27 +1103,33 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F21" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 0 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>44.53475727321948</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>14717.30619087737</v>
+        <v>140</v>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>-0.6340375616579879</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1013,27 +1139,33 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>44.53475727321948</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>14717.30619087737</v>
+        <v>140</v>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>-0.6340375616579879</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1043,27 +1175,33 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F23" s="0" t="inlineStr">
-        <is>
-          <t>NOT ADAPTED</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>44.53475727321948</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>14717.30619087737</v>
+        <v>140</v>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 5 ships</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>-0.6340375616579879</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1073,27 +1211,33 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>43.86306556382098</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>14504.99638855489</v>
+        <v>160</v>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>-0.6344851530749763</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1103,27 +1247,33 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>43.86306556382098</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>14504.99638855489</v>
+        <v>160</v>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>-0.6344851530749763</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1133,27 +1283,33 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>43.86306556382098</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>14504.99638855489</v>
+        <v>160</v>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>-0.6484383165968726</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1163,27 +1319,33 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>600</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>43.86306556382098</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>14504.99638855489</v>
+        <v>160</v>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>-0.6484383165968726</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1193,27 +1355,33 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>43.86306556382098</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>14504.99638855489</v>
+        <v>140</v>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 25 ships</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>-0.6527851847044672</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1223,27 +1391,33 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 100 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>43.57041283394654</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>14513.48456200626</v>
+        <v>130</v>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>-0.7325586947532244</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1253,27 +1427,33 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 100 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>43.57041283394654</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>14513.48456200626</v>
+        <v>130</v>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>-0.7325586947532244</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1283,27 +1463,33 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>43.56399873464724</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>14167.73279589808</v>
+        <v>130</v>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>-0.7325586947532244</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1313,27 +1499,33 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 100 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>23.04557504299033</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>11005.40311560643</v>
+        <v>130</v>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>-0.7325586947532244</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1343,27 +1535,33 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 100 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>23.04557504299033</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>11005.40311560643</v>
+        <v>130</v>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>-0.7325586947532244</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1373,27 +1571,33 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>21.29356538519792</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>10088.11145205612</v>
+        <v>130</v>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>-0.7325586947532244</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1403,27 +1607,33 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>21.29356538519792</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>10088.11145205612</v>
+        <v>140</v>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>-0.8388265462165704</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1433,27 +1643,33 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>21.29356538519792</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>10088.11145205612</v>
+        <v>200</v>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>-0.8439793294019389</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1463,27 +1679,33 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>21.29356538519792</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>10088.11145205612</v>
+        <v>200</v>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>-0.8439793294019389</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1493,27 +1715,33 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>21.29356538519792</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>10088.11145205612</v>
+        <v>140</v>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>-0.874089616734731</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1523,27 +1751,33 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 100 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>21.29356538519792</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>10088.11145205612</v>
+        <v>140</v>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>-0.874089616734731</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1553,27 +1787,33 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 100 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>20.76961938769668</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>10117.98716286014</v>
+        <v>160</v>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>-0.8796439082026843</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1583,26 +1823,32 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 5 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>79.95132269128059</v>
-      </c>
-      <c r="H41" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>-0.8796439082026843</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1613,26 +1859,32 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 5 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>79.95132269128059</v>
-      </c>
-      <c r="H42" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>-0.8796439082026843</v>
+      </c>
+      <c r="J42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1643,26 +1895,32 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 5 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>79.95132269128059</v>
-      </c>
-      <c r="H43" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>6month charter, 20 ships</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>-0.8796439082026843</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1673,26 +1931,32 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 5 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>79.95132269128059</v>
-      </c>
-      <c r="H44" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>-0.9072374464248324</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1703,26 +1967,32 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 5 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>79.87079058642479</v>
-      </c>
-      <c r="H45" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>-0.9072374464248324</v>
+      </c>
+      <c r="J45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1744,15 +2014,21 @@
       <c r="E46" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+      <c r="F46" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H46" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>-0.9072374464248324</v>
+      </c>
+      <c r="J46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1769,20 +2045,26 @@
         <v>60</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+      <c r="F47" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H47" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>-0.9072374464248324</v>
+      </c>
+      <c r="J47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1793,7 +2075,7 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>60</v>
@@ -1802,17 +2084,23 @@
         <v>200</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H48" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>-0.9886698425778577</v>
+      </c>
+      <c r="J48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1823,26 +2111,32 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E49" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+      <c r="F49" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H49" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>-0.9886698425778577</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1853,7 +2147,7 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>60</v>
@@ -1862,17 +2156,23 @@
         <v>200</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H50" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 10 ships</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>-0.9886698425778577</v>
+      </c>
+      <c r="J50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1894,15 +2194,21 @@
       <c r="E51" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+      <c r="F51" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H51" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>-1.000494411068165</v>
+      </c>
+      <c r="J51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,23 +2222,29 @@
         <v>10</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>200</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H52" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 15 ships</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>-1.000494411068165</v>
+      </c>
+      <c r="J52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1943,26 +2255,32 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H53" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>-1.03029237429767</v>
+      </c>
+      <c r="J53" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1973,26 +2291,32 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H54" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>-1.03029237429767</v>
+      </c>
+      <c r="J54" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2003,26 +2327,32 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H55" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>-1.091946521697241</v>
+      </c>
+      <c r="J55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2033,7 +2363,7 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>70</v>
@@ -2042,17 +2372,23 @@
         <v>300</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H56" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>-1.091946521697241</v>
+      </c>
+      <c r="J56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2063,26 +2399,32 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H57" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>-1.091946521697241</v>
+      </c>
+      <c r="J57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2093,26 +2435,32 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H58" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>-1.091946521697241</v>
+      </c>
+      <c r="J58" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2123,26 +2471,32 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H59" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>-1.091946521697241</v>
+      </c>
+      <c r="J59" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,26 +2507,32 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>79.31521213043489</v>
-      </c>
-      <c r="H60" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>-1.091946521697241</v>
+      </c>
+      <c r="J60" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2183,26 +2543,32 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>75.5284916323549</v>
-      </c>
-      <c r="H61" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J61" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2213,26 +2579,32 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>75.5284916323549</v>
-      </c>
-      <c r="H62" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J62" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2243,26 +2615,32 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>75.50956567432323</v>
-      </c>
-      <c r="H63" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2273,26 +2651,32 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C64" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F64" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 5 ships</t>
-        </is>
-      </c>
       <c r="G64" s="0" t="n">
-        <v>71.80022097550356</v>
-      </c>
-      <c r="H64" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J64" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2303,26 +2687,32 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F65" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 5 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>71.80022097550356</v>
-      </c>
-      <c r="H65" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J65" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2333,26 +2723,32 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F66" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 5 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>71.77879911533167</v>
-      </c>
-      <c r="H66" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J66" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2366,23 +2762,29 @@
         <v>10</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F67" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>69.44969106190301</v>
-      </c>
-      <c r="H67" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2393,26 +2795,32 @@
         </is>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="F68" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 25 ships</t>
-        </is>
+      <c r="F68" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>64.93839048908382</v>
-      </c>
-      <c r="H68" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2426,23 +2834,29 @@
         <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F69" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 25 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>64.93839048908382</v>
-      </c>
-      <c r="H69" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2453,26 +2867,32 @@
         </is>
       </c>
       <c r="B70" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F70" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>63.60729320942638</v>
-      </c>
-      <c r="H70" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J70" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2483,26 +2903,32 @@
         </is>
       </c>
       <c r="B71" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F71" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>63.60729320942638</v>
-      </c>
-      <c r="H71" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2513,26 +2939,32 @@
         </is>
       </c>
       <c r="B72" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F72" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>63.60729320942638</v>
-      </c>
-      <c r="H72" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J72" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2543,26 +2975,32 @@
         </is>
       </c>
       <c r="B73" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F73" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>60.93002510786577</v>
-      </c>
-      <c r="H73" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2573,26 +3011,32 @@
         </is>
       </c>
       <c r="B74" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F74" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>60.93002510786577</v>
-      </c>
-      <c r="H74" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J74" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2603,26 +3047,32 @@
         </is>
       </c>
       <c r="B75" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C75" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F75" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F75" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
-      </c>
       <c r="G75" s="0" t="n">
-        <v>60.93002510786577</v>
-      </c>
-      <c r="H75" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2633,26 +3083,32 @@
         </is>
       </c>
       <c r="B76" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F76" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>60.93002510786577</v>
-      </c>
-      <c r="H76" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J76" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2663,26 +3119,32 @@
         </is>
       </c>
       <c r="B77" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C77" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F77" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F77" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
-      </c>
       <c r="G77" s="0" t="n">
-        <v>60.93002510786577</v>
-      </c>
-      <c r="H77" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2693,26 +3155,32 @@
         </is>
       </c>
       <c r="B78" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F78" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>60.93002510786577</v>
-      </c>
-      <c r="H78" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J78" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2723,26 +3191,32 @@
         </is>
       </c>
       <c r="B79" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F79" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>60.93002510786577</v>
-      </c>
-      <c r="H79" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J79" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2753,26 +3227,32 @@
         </is>
       </c>
       <c r="B80" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 30 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>59.37571597887838</v>
-      </c>
-      <c r="H80" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H80" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2783,26 +3263,32 @@
         </is>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F81" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 30 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>59.37571597887838</v>
-      </c>
-      <c r="H81" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2813,26 +3299,32 @@
         </is>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>550</v>
-      </c>
-      <c r="F82" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 30 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>160</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>56.33722480631288</v>
-      </c>
-      <c r="H82" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H82" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2846,23 +3338,29 @@
         <v>60</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F83" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 40 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>55.68396022996671</v>
-      </c>
-      <c r="H83" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2873,26 +3371,32 @@
         </is>
       </c>
       <c r="B84" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="F84" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 50 ships</t>
-        </is>
+      <c r="F84" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>54.85447208926367</v>
-      </c>
-      <c r="H84" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J84" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2903,26 +3407,32 @@
         </is>
       </c>
       <c r="B85" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F85" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 50 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>54.85447208926367</v>
-      </c>
-      <c r="H85" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H85" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J85" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2933,26 +3443,32 @@
         </is>
       </c>
       <c r="B86" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F86" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 70 ships</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>54.75795173958232</v>
-      </c>
-      <c r="H86" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J86" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2963,26 +3479,32 @@
         </is>
       </c>
       <c r="B87" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F87" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 70 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>54.75795173958232</v>
-      </c>
-      <c r="H87" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J87" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2993,26 +3515,32 @@
         </is>
       </c>
       <c r="B88" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F88" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 70 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>54.75795173958232</v>
-      </c>
-      <c r="H88" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J88" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3023,26 +3551,32 @@
         </is>
       </c>
       <c r="B89" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F89" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 20 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>54.55301254582203</v>
-      </c>
-      <c r="H89" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3053,26 +3587,32 @@
         </is>
       </c>
       <c r="B90" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F90" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 20 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>54.2390361823221</v>
-      </c>
-      <c r="H90" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J90" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3083,26 +3623,32 @@
         </is>
       </c>
       <c r="B91" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F91" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 20 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>54.2390361823221</v>
-      </c>
-      <c r="H91" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J91" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3116,23 +3662,29 @@
         <v>10</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F92" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 20 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>54.2390361823221</v>
-      </c>
-      <c r="H92" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J92" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3143,26 +3695,32 @@
         </is>
       </c>
       <c r="B93" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F93" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 25 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>54.07753572304639</v>
-      </c>
-      <c r="H93" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J93" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3173,26 +3731,32 @@
         </is>
       </c>
       <c r="B94" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F94" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 25 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>54.07753572304639</v>
-      </c>
-      <c r="H94" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J94" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3203,26 +3767,32 @@
         </is>
       </c>
       <c r="B95" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F95" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 30 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>53.94917357690997</v>
-      </c>
-      <c r="H95" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J95" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3233,26 +3803,32 @@
         </is>
       </c>
       <c r="B96" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F96" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 30 ships</t>
-        </is>
+        <v>900</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>53.94917357690997</v>
-      </c>
-      <c r="H96" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J96" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3263,26 +3839,32 @@
         </is>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F97" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 25 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>52.22881011645627</v>
-      </c>
-      <c r="H97" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3296,23 +3878,29 @@
         <v>10</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F98" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 25 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>52.22881011645627</v>
-      </c>
-      <c r="H98" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J98" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,26 +3911,32 @@
         </is>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F99" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 25 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>52.22881011645627</v>
-      </c>
-      <c r="H99" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J99" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3353,26 +3947,32 @@
         </is>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C100" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F100" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E100" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F100" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 25 ships</t>
-        </is>
-      </c>
       <c r="G100" s="0" t="n">
-        <v>52.22881011645627</v>
-      </c>
-      <c r="H100" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3383,26 +3983,32 @@
         </is>
       </c>
       <c r="B101" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F101" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H101" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3413,26 +4019,32 @@
         </is>
       </c>
       <c r="B102" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F102" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H102" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J102" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3443,26 +4055,32 @@
         </is>
       </c>
       <c r="B103" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E103" s="0" t="n">
         <v>750</v>
       </c>
-      <c r="F103" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+      <c r="F103" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H103" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J103" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3473,26 +4091,32 @@
         </is>
       </c>
       <c r="B104" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F104" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H104" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J104" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3503,26 +4127,32 @@
         </is>
       </c>
       <c r="B105" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F105" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H105" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3533,26 +4163,32 @@
         </is>
       </c>
       <c r="B106" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>200</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F106" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>130</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H106" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J106" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3563,26 +4199,32 @@
         </is>
       </c>
       <c r="B107" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C107" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F107" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D107" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E107" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F107" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
-      </c>
       <c r="G107" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H107" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J107" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3593,26 +4235,32 @@
         </is>
       </c>
       <c r="B108" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F108" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H108" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J108" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3623,26 +4271,32 @@
         </is>
       </c>
       <c r="B109" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F109" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 70 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>51.40735072732809</v>
-      </c>
-      <c r="H109" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J109" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3653,26 +4307,32 @@
         </is>
       </c>
       <c r="B110" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F110" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 50 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>49.96641055019271</v>
-      </c>
-      <c r="H110" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J110" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3683,26 +4343,32 @@
         </is>
       </c>
       <c r="B111" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F111" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 50 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>49.96641055019271</v>
-      </c>
-      <c r="H111" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J111" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,26 +4379,32 @@
         </is>
       </c>
       <c r="B112" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F112" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 50 ships</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>49.96641055019271</v>
-      </c>
-      <c r="H112" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H112" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J112" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3743,26 +4415,32 @@
         </is>
       </c>
       <c r="B113" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F113" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 50 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>49.96641055019271</v>
-      </c>
-      <c r="H113" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J113" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3773,26 +4451,32 @@
         </is>
       </c>
       <c r="B114" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>400</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F114" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>49.69942512743383</v>
-      </c>
-      <c r="H114" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H114" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J114" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3803,26 +4487,32 @@
         </is>
       </c>
       <c r="B115" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F115" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 10 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>49.69942512743383</v>
-      </c>
-      <c r="H115" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J115" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3833,26 +4523,32 @@
         </is>
       </c>
       <c r="B116" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F116" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>49.69942512743383</v>
-      </c>
-      <c r="H116" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J116" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3863,26 +4559,32 @@
         </is>
       </c>
       <c r="B117" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F117" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>49.69942512743383</v>
-      </c>
-      <c r="H117" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J117" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3893,26 +4595,32 @@
         </is>
       </c>
       <c r="B118" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F118" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 10 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>49.69942512743383</v>
-      </c>
-      <c r="H118" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H118" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J118" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3923,26 +4631,32 @@
         </is>
       </c>
       <c r="B119" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F119" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>49.69942512743383</v>
-      </c>
-      <c r="H119" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J119" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3953,26 +4667,32 @@
         </is>
       </c>
       <c r="B120" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F120" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>49.56056224628385</v>
-      </c>
-      <c r="H120" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J120" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3983,26 +4703,32 @@
         </is>
       </c>
       <c r="B121" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F121" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>49.56056224628385</v>
-      </c>
-      <c r="H121" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J121" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4013,26 +4739,32 @@
         </is>
       </c>
       <c r="B122" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F122" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 60 ships</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>49.56056224628385</v>
-      </c>
-      <c r="H122" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J122" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4043,26 +4775,32 @@
         </is>
       </c>
       <c r="B123" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F123" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>48.77236898971744</v>
-      </c>
-      <c r="H123" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J123" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4073,26 +4811,32 @@
         </is>
       </c>
       <c r="B124" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F124" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H124" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J124" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,26 +4847,32 @@
         </is>
       </c>
       <c r="B125" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F125" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H125" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4133,26 +4883,32 @@
         </is>
       </c>
       <c r="B126" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F126" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H126" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H126" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J126" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4163,26 +4919,32 @@
         </is>
       </c>
       <c r="B127" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F127" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H127" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J127" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4193,26 +4955,32 @@
         </is>
       </c>
       <c r="B128" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F128" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>160</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H128" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H128" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4223,26 +4991,32 @@
         </is>
       </c>
       <c r="B129" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F129" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H129" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H129" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J129" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4253,26 +5027,32 @@
         </is>
       </c>
       <c r="B130" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F130" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H130" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H130" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J130" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4283,26 +5063,32 @@
         </is>
       </c>
       <c r="B131" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F131" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H131" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H131" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4313,26 +5099,32 @@
         </is>
       </c>
       <c r="B132" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F132" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H132" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H132" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J132" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4343,26 +5135,32 @@
         </is>
       </c>
       <c r="B133" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F133" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H133" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H133" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J133" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4373,26 +5171,32 @@
         </is>
       </c>
       <c r="B134" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F134" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 80 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>48.28754583848004</v>
-      </c>
-      <c r="H134" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H134" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J134" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4403,26 +5207,32 @@
         </is>
       </c>
       <c r="B135" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>140</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F135" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H135" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H135" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J135" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4433,26 +5243,32 @@
         </is>
       </c>
       <c r="B136" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F136" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H136" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H136" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J136" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4463,26 +5279,32 @@
         </is>
       </c>
       <c r="B137" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F137" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H137" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H137" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J137" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,26 +5315,32 @@
         </is>
       </c>
       <c r="B138" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F138" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H138" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H138" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J138" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4523,26 +5351,32 @@
         </is>
       </c>
       <c r="B139" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F139" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H139" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H139" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J139" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4553,26 +5387,32 @@
         </is>
       </c>
       <c r="B140" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F140" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H140" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H140" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J140" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4583,26 +5423,32 @@
         </is>
       </c>
       <c r="B141" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F141" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H141" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H141" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J141" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4613,26 +5459,32 @@
         </is>
       </c>
       <c r="B142" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F142" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 60 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>47.07060640325289</v>
-      </c>
-      <c r="H142" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H142" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4643,26 +5495,32 @@
         </is>
       </c>
       <c r="B143" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F143" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>45.69978541488346</v>
-      </c>
-      <c r="H143" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H143" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J143" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4673,26 +5531,32 @@
         </is>
       </c>
       <c r="B144" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F144" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>44.62766855088884</v>
-      </c>
-      <c r="H144" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H144" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J144" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4703,26 +5567,32 @@
         </is>
       </c>
       <c r="B145" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F145" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>44.62766855088884</v>
-      </c>
-      <c r="H145" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H145" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J145" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4733,26 +5603,32 @@
         </is>
       </c>
       <c r="B146" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C146" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F146" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D146" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E146" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F146" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 10 ships</t>
-        </is>
-      </c>
       <c r="G146" s="0" t="n">
-        <v>44.62692235913525</v>
-      </c>
-      <c r="H146" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H146" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J146" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4763,26 +5639,32 @@
         </is>
       </c>
       <c r="B147" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C147" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F147" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D147" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E147" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F147" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 10 ships</t>
-        </is>
-      </c>
       <c r="G147" s="0" t="n">
-        <v>44.62692235913525</v>
-      </c>
-      <c r="H147" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H147" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J147" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4793,26 +5675,32 @@
         </is>
       </c>
       <c r="B148" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F148" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 30 ships</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>43.96886141847175</v>
-      </c>
-      <c r="H148" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H148" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J148" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4823,26 +5711,32 @@
         </is>
       </c>
       <c r="B149" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F149" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 20 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>43.10335385671451</v>
-      </c>
-      <c r="H149" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H149" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J149" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4853,26 +5747,32 @@
         </is>
       </c>
       <c r="B150" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F150" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 20 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>43.10335385671451</v>
-      </c>
-      <c r="H150" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H150" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J150" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4883,26 +5783,32 @@
         </is>
       </c>
       <c r="B151" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C151" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D151" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E151" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F151" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 20 ships</t>
-        </is>
-      </c>
-      <c r="G151" s="0" t="n">
-        <v>42.45388100599761</v>
-      </c>
-      <c r="H151" s="0" t="n">
+      <c r="H151" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J151" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4913,26 +5819,32 @@
         </is>
       </c>
       <c r="B152" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>150</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F152" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 5 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>42.41535516233266</v>
-      </c>
-      <c r="H152" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H152" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J152" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4943,26 +5855,32 @@
         </is>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F153" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 5 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>42.41535516233266</v>
-      </c>
-      <c r="H153" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="H153" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J153" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4973,26 +5891,32 @@
         </is>
       </c>
       <c r="B154" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F154" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 20 ships</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>41.53807532210713</v>
-      </c>
-      <c r="H154" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H154" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 0 ships</t>
+        </is>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J154" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5003,26 +5927,32 @@
         </is>
       </c>
       <c r="B155" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F155" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 25 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>41.35991665720368</v>
-      </c>
-      <c r="H155" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H155" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J155" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5033,26 +5963,32 @@
         </is>
       </c>
       <c r="B156" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F156" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 25 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>41.35991665720368</v>
-      </c>
-      <c r="H156" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H156" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5063,26 +5999,32 @@
         </is>
       </c>
       <c r="B157" s="0" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F157" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 30 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>39.85210619753435</v>
-      </c>
-      <c r="H157" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H157" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J157" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5093,26 +6035,32 @@
         </is>
       </c>
       <c r="B158" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F158" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 80 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>38.76357400505168</v>
-      </c>
-      <c r="H158" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H158" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J158" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5123,26 +6071,32 @@
         </is>
       </c>
       <c r="B159" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F159" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 80 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>38.76357400505168</v>
-      </c>
-      <c r="H159" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H159" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J159" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5153,26 +6107,32 @@
         </is>
       </c>
       <c r="B160" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C160" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F160" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D160" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="E160" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F160" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 40 ships</t>
-        </is>
-      </c>
       <c r="G160" s="0" t="n">
-        <v>37.48135909244619</v>
-      </c>
-      <c r="H160" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H160" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J160" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5183,26 +6143,32 @@
         </is>
       </c>
       <c r="B161" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F161" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 25 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>36.76976155704535</v>
-      </c>
-      <c r="H161" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H161" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J161" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5213,26 +6179,32 @@
         </is>
       </c>
       <c r="B162" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F162" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>36.55690528209367</v>
-      </c>
-      <c r="H162" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H162" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J162" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5243,26 +6215,32 @@
         </is>
       </c>
       <c r="B163" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F163" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>36.55690528209367</v>
-      </c>
-      <c r="H163" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H163" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J163" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5273,26 +6251,32 @@
         </is>
       </c>
       <c r="B164" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F164" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 5 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>36.00360428444337</v>
-      </c>
-      <c r="H164" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H164" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J164" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5303,26 +6287,32 @@
         </is>
       </c>
       <c r="B165" s="0" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F165" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 5 ships</t>
-        </is>
+        <v>1000</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>36.00360428444337</v>
-      </c>
-      <c r="H165" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H165" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J165" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5333,26 +6323,32 @@
         </is>
       </c>
       <c r="B166" s="0" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F166" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 5 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>36.00360428444337</v>
-      </c>
-      <c r="H166" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H166" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J166" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5366,23 +6362,29 @@
         <v>0</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F167" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 25 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>31.62645377559876</v>
-      </c>
-      <c r="H167" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H167" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J167" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5396,23 +6398,29 @@
         <v>0</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="F168" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 25 ships</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>31.62645377559876</v>
-      </c>
-      <c r="H168" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H168" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 0 ships</t>
+        </is>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J168" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5423,26 +6431,32 @@
         </is>
       </c>
       <c r="B169" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C169" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F169" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D169" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E169" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F169" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 90 ships</t>
-        </is>
-      </c>
       <c r="G169" s="0" t="n">
-        <v>31.19013158959641</v>
-      </c>
-      <c r="H169" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H169" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J169" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5453,26 +6467,32 @@
         </is>
       </c>
       <c r="B170" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F170" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 90 ships</t>
-        </is>
+        <v>1300</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>31.19013158959641</v>
-      </c>
-      <c r="H170" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H170" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J170" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5483,26 +6503,32 @@
         </is>
       </c>
       <c r="B171" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F171" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 90 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>31.19013158959641</v>
-      </c>
-      <c r="H171" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H171" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J171" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5513,26 +6539,32 @@
         </is>
       </c>
       <c r="B172" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>120</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="E172" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="F172" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 90 ships</t>
-        </is>
+      <c r="F172" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>31.19013158959641</v>
-      </c>
-      <c r="H172" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H172" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J172" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5546,23 +6578,29 @@
         <v>10</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F173" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 5 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>30.6326466377412</v>
-      </c>
-      <c r="H173" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H173" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J173" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5576,23 +6614,29 @@
         <v>10</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F174" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 5 ships</t>
-        </is>
+        <v>1500</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>30.6326466377412</v>
-      </c>
-      <c r="H174" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H174" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J174" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5603,26 +6647,32 @@
         </is>
       </c>
       <c r="B175" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F175" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 70 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>29.72043448964535</v>
-      </c>
-      <c r="H175" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H175" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J175" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5633,26 +6683,32 @@
         </is>
       </c>
       <c r="B176" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F176" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 70 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>29.72043448964535</v>
-      </c>
-      <c r="H176" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H176" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J176" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,26 +6719,32 @@
         </is>
       </c>
       <c r="B177" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>1100</v>
-      </c>
-      <c r="F177" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 70 ships</t>
-        </is>
+        <v>400</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>29.72043448964535</v>
-      </c>
-      <c r="H177" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="H177" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J177" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5693,26 +6755,32 @@
         </is>
       </c>
       <c r="B178" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C178" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F178" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E178" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F178" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 70 ships</t>
-        </is>
-      </c>
       <c r="G178" s="0" t="n">
-        <v>29.72043448964535</v>
-      </c>
-      <c r="H178" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H178" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J178" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5723,26 +6791,32 @@
         </is>
       </c>
       <c r="B179" s="0" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C179" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F179" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D179" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="E179" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F179" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 70 ships</t>
-        </is>
-      </c>
       <c r="G179" s="0" t="n">
-        <v>29.72043448964535</v>
-      </c>
-      <c r="H179" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H179" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J179" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5753,26 +6827,32 @@
         </is>
       </c>
       <c r="B180" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F180" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+        <v>750</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>29.47372791423137</v>
-      </c>
-      <c r="H180" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="H180" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J180" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5783,26 +6863,32 @@
         </is>
       </c>
       <c r="B181" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F181" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>29.47372791423137</v>
-      </c>
-      <c r="H181" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H181" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J181" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5813,26 +6899,32 @@
         </is>
       </c>
       <c r="B182" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="F182" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>29.47372791423137</v>
-      </c>
-      <c r="H182" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H182" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J182" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5843,26 +6935,32 @@
         </is>
       </c>
       <c r="B183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C183" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D183" s="0" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F183" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>29.27052737929784</v>
-      </c>
-      <c r="H183" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H183" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J183" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5873,26 +6971,32 @@
         </is>
       </c>
       <c r="B184" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>700</v>
-      </c>
-      <c r="F184" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>160</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>29.27052737929784</v>
-      </c>
-      <c r="H184" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H184" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J184" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5903,26 +7007,32 @@
         </is>
       </c>
       <c r="B185" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F185" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 5 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>28.1627139644975</v>
-      </c>
-      <c r="H185" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H185" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J185" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5933,26 +7043,32 @@
         </is>
       </c>
       <c r="B186" s="0" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F186" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 5 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>105</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>28.1627139644975</v>
-      </c>
-      <c r="H186" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H186" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J186" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5963,26 +7079,32 @@
         </is>
       </c>
       <c r="B187" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F187" s="0" t="inlineStr">
-        <is>
-          <t>36month charter, 5 ships</t>
-        </is>
+        <v>300</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>130</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>28.1627139644975</v>
-      </c>
-      <c r="H187" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H187" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J187" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5993,26 +7115,32 @@
         </is>
       </c>
       <c r="B188" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="F188" s="0" t="inlineStr">
-        <is>
-          <t>3month charter, 15 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>27.9088694469569</v>
-      </c>
-      <c r="H188" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H188" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J188" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6026,23 +7154,29 @@
         <v>10</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E189" s="0" t="n">
         <v>1500</v>
       </c>
-      <c r="F189" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 5 ships</t>
-        </is>
+      <c r="F189" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>27.59455137378819</v>
-      </c>
-      <c r="H189" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H189" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J189" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6053,26 +7187,32 @@
         </is>
       </c>
       <c r="B190" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C190" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F190" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="D190" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E190" s="0" t="n">
-        <v>1500</v>
-      </c>
-      <c r="F190" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 5 ships</t>
-        </is>
-      </c>
       <c r="G190" s="0" t="n">
-        <v>27.59455137378819</v>
-      </c>
-      <c r="H190" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H190" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J190" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6083,26 +7223,32 @@
         </is>
       </c>
       <c r="B191" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E191" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="F191" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 20 ships</t>
-        </is>
+      <c r="F191" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>27.00420555625088</v>
-      </c>
-      <c r="H191" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H191" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J191" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6113,26 +7259,32 @@
         </is>
       </c>
       <c r="B192" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E192" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F192" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 5 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>26.6316462679001</v>
-      </c>
-      <c r="H192" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="H192" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J192" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6143,26 +7295,32 @@
         </is>
       </c>
       <c r="B193" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F193" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 5 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>26.6316462679001</v>
-      </c>
-      <c r="H193" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H193" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J193" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6173,26 +7331,32 @@
         </is>
       </c>
       <c r="B194" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="F194" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="G194" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D194" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F194" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 5 ships</t>
-        </is>
-      </c>
-      <c r="G194" s="0" t="n">
-        <v>26.6316462679001</v>
-      </c>
-      <c r="H194" s="0" t="n">
+      <c r="H194" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J194" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6203,26 +7367,32 @@
         </is>
       </c>
       <c r="B195" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E195" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F195" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 5 ships</t>
-        </is>
+        <v>550</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>26.6316462679001</v>
-      </c>
-      <c r="H195" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="H195" s="0" t="inlineStr">
+        <is>
+          <t>36month charter, 0 ships</t>
+        </is>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J195" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6233,26 +7403,32 @@
         </is>
       </c>
       <c r="B196" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F196" s="0" t="inlineStr">
-        <is>
-          <t>12month charter, 5 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>110</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>26.6316462679001</v>
-      </c>
-      <c r="H196" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H196" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J196" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6263,26 +7439,32 @@
         </is>
       </c>
       <c r="B197" s="0" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E197" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="F197" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>120</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>26.57433710201884</v>
-      </c>
-      <c r="H197" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="H197" s="0" t="inlineStr">
+        <is>
+          <t>NOT ADAPTED</t>
+        </is>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>-1.098536822744765</v>
+      </c>
+      <c r="J197" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,23 +7478,29 @@
         <v>40</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E198" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="F198" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>26.22244332592472</v>
-      </c>
-      <c r="H198" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H198" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>-1.105592750970468</v>
+      </c>
+      <c r="J198" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6329,20 +7517,26 @@
         <v>70</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F199" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>800</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>26.22244332592472</v>
-      </c>
-      <c r="H199" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="H199" s="0" t="inlineStr">
+        <is>
+          <t>12month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>-1.105592750970468</v>
+      </c>
+      <c r="J199" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6353,26 +7547,32 @@
         </is>
       </c>
       <c r="B200" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F200" s="0" t="inlineStr">
-        <is>
-          <t>6month charter, 10 ships</t>
-        </is>
+        <v>1100</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>95</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>26.22244332592472</v>
-      </c>
-      <c r="H200" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H200" s="0" t="inlineStr">
+        <is>
+          <t>3month charter, 100 ships</t>
+        </is>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>-1.117615008087674</v>
+      </c>
+      <c r="J200" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,30 +383,30 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0.9865476740040086</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J1" s="0" t="n">
         <v>0</v>
@@ -419,30 +419,30 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.9865476740040086</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -455,30 +455,30 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -491,30 +491,30 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -527,30 +527,30 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -563,30 +563,30 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -599,30 +599,30 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -635,30 +635,30 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -671,30 +671,30 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -707,30 +707,30 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>3month charter, 40 ships</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>0.2283400748953568</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -743,30 +743,30 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -779,30 +779,30 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -815,30 +815,30 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.9545838283544081</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -851,22 +851,22 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -887,22 +887,22 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>0</v>
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0</v>
@@ -995,22 +995,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D18" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E18" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F18" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.5157015114487719</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -1031,30 +1031,30 @@
         </is>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="G19" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.2669086408774083</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -1067,30 +1067,30 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>60</v>
-      </c>
       <c r="G20" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.2669086408774083</v>
+        <v>-0.1364463133780686</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,33 +383,33 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0</v>
+        <v>0.4062694062005138</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0</v>
+        <v>0.2668326643511461</v>
       </c>
     </row>
     <row r="2">
@@ -419,33 +419,33 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0</v>
+        <v>0.4062694062005138</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0</v>
+        <v>0.2668326643511461</v>
       </c>
     </row>
     <row r="3">
@@ -455,33 +455,33 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>36month charter, 90 ships</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0</v>
+        <v>0.4062694062005138</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0</v>
+        <v>0.2668326643511461</v>
       </c>
     </row>
     <row r="4">
@@ -497,27 +497,27 @@
         <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>0.4062694062005138</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0</v>
+        <v>0.2668326643511461</v>
       </c>
     </row>
     <row r="5">
@@ -530,30 +530,30 @@
         <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 60 ships</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0</v>
+        <v>0.3979870806063195</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0</v>
+        <v>0.2583260305317497</v>
       </c>
     </row>
     <row r="6">
@@ -563,33 +563,33 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 90 ships</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0</v>
+        <v>0.3979870806063195</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0</v>
+        <v>0.2583260305317497</v>
       </c>
     </row>
     <row r="7">
@@ -599,33 +599,33 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0</v>
+        <v>0.3979870806063195</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0</v>
+        <v>0.2583260305317497</v>
       </c>
     </row>
     <row r="8">
@@ -635,33 +635,33 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>1100</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1300</v>
-      </c>
       <c r="F8" s="0" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>0.3979870806063195</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>0.2583260305317497</v>
       </c>
     </row>
     <row r="9">
@@ -671,33 +671,33 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>36month charter, 100 ships</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>0.3426040340678024</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>0.2616771458819863</v>
       </c>
     </row>
     <row r="10">
@@ -707,33 +707,33 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>110</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>160</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>0.3426040340678024</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>0.2616771458819863</v>
       </c>
     </row>
     <row r="11">
@@ -743,33 +743,33 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>0.3426040340678024</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0</v>
+        <v>0.2616771458819863</v>
       </c>
     </row>
     <row r="12">
@@ -779,33 +779,33 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0</v>
+        <v>0.3426040340678024</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>0.2616771458819863</v>
       </c>
     </row>
     <row r="13">
@@ -818,30 +818,30 @@
         <v>10</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 10 ships</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>0.3426040340678024</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0</v>
+        <v>0.2616771458819863</v>
       </c>
     </row>
     <row r="14">
@@ -851,33 +851,33 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0</v>
+        <v>0.3292767965494208</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0</v>
+        <v>0.2446662676126736</v>
       </c>
     </row>
     <row r="15">
@@ -887,33 +887,33 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 90 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0</v>
+        <v>0.3292767965494208</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0</v>
+        <v>0.2446662676126736</v>
       </c>
     </row>
     <row r="16">
@@ -923,33 +923,33 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0</v>
+        <v>0.3292767965494208</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0</v>
+        <v>0.2446662676126736</v>
       </c>
     </row>
     <row r="17">
@@ -959,33 +959,33 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0</v>
+        <v>0.3292767965494208</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0</v>
+        <v>0.2446662676126736</v>
       </c>
     </row>
     <row r="18">
@@ -995,33 +995,33 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>150</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 80 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0</v>
+        <v>0.328716306042529</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0</v>
+        <v>0.2450298183360425</v>
       </c>
     </row>
     <row r="19">
@@ -1034,30 +1034,30 @@
         <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 100 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0</v>
+        <v>0.2932577600198636</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0</v>
+        <v>0.246832555504482</v>
       </c>
     </row>
     <row r="20">
@@ -1067,33 +1067,33 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>140</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0</v>
+        <v>0.2932577600198636</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0</v>
+        <v>0.246832555504482</v>
       </c>
     </row>
     <row r="21">
@@ -1103,33 +1103,33 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>36month charter, 25 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0</v>
+        <v>0.2932577600198636</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0</v>
+        <v>0.246832555504482</v>
       </c>
     </row>
     <row r="22">
@@ -1139,33 +1139,33 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="G22" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0</v>
+        <v>0.2932577600198636</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0</v>
+        <v>0.246832555504482</v>
       </c>
     </row>
     <row r="23">
@@ -1175,33 +1175,33 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 0 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0</v>
+        <v>0.2932577600198636</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0</v>
+        <v>0.246832555504482</v>
       </c>
     </row>
     <row r="24">
@@ -1211,33 +1211,33 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 90 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0</v>
+        <v>0.2932577600198636</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0</v>
+        <v>0.246832555504482</v>
       </c>
     </row>
     <row r="25">
@@ -1247,33 +1247,33 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0</v>
+        <v>0.2932577600198636</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0</v>
+        <v>0.246832555504482</v>
       </c>
     </row>
     <row r="26">
@@ -1283,33 +1283,33 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>650</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>0.2196699974426017</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0</v>
+        <v>0.2134875246932876</v>
       </c>
     </row>
     <row r="27">
@@ -1319,33 +1319,33 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 30 ships</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>0.2196699974426017</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0</v>
+        <v>0.2134875246932876</v>
       </c>
     </row>
     <row r="28">
@@ -1355,33 +1355,33 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>-0.004861149515923163</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0</v>
+        <v>0.3136932421358158</v>
       </c>
     </row>
     <row r="29">
@@ -1391,33 +1391,33 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>-0.005692627944643569</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0</v>
+        <v>0.3319638861775649</v>
       </c>
     </row>
     <row r="30">
@@ -1427,33 +1427,33 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 60 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>-0.005692627944643569</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0</v>
+        <v>0.3319638861775649</v>
       </c>
     </row>
     <row r="31">
@@ -1463,33 +1463,33 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 30 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0</v>
+        <v>-0.005692627944643569</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0</v>
+        <v>0.3319638861775649</v>
       </c>
     </row>
     <row r="32">
@@ -1502,30 +1502,30 @@
         <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 70 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I32" s="0" t="n">
-        <v>0</v>
+        <v>-0.005692627944643569</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0</v>
+        <v>0.3319638861775649</v>
       </c>
     </row>
     <row r="33">
@@ -1535,33 +1535,33 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 25 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0</v>
+        <v>-0.01781114669733899</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0</v>
+        <v>0.3140533871853226</v>
       </c>
     </row>
     <row r="34">
@@ -1571,33 +1571,33 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>650</v>
+        <v>1100</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 60 ships</t>
+          <t>6month charter, 10 ships</t>
         </is>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0</v>
+        <v>-0.02440964339738593</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0</v>
+        <v>0.321794528956257</v>
       </c>
     </row>
     <row r="35">
@@ -1607,33 +1607,33 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D35" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E35" s="0" t="n">
         <v>600</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1000</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0</v>
+        <v>-0.07358074718363093</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0</v>
+        <v>0.3129050409288702</v>
       </c>
     </row>
     <row r="36">
@@ -1643,33 +1643,33 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0</v>
+        <v>-0.08441152006274709</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0</v>
+        <v>0.314035671021923</v>
       </c>
     </row>
     <row r="37">
@@ -1679,33 +1679,33 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0</v>
+        <v>-0.08441152006274709</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0</v>
+        <v>0.314035671021923</v>
       </c>
     </row>
     <row r="38">
@@ -1715,33 +1715,33 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>300</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I38" s="0" t="n">
-        <v>0</v>
+        <v>-0.08441152006274709</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0</v>
+        <v>0.314035671021923</v>
       </c>
     </row>
     <row r="39">
@@ -1751,33 +1751,33 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>12month charter, 10 ships</t>
         </is>
       </c>
       <c r="I39" s="0" t="n">
-        <v>0</v>
+        <v>-0.08441152006274709</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0</v>
+        <v>0.314035671021923</v>
       </c>
     </row>
     <row r="40">
@@ -1787,33 +1787,33 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1300</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>95</v>
-      </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 5 ships</t>
         </is>
       </c>
       <c r="I40" s="0" t="n">
-        <v>0</v>
+        <v>-0.08563169975477537</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0</v>
+        <v>0.3133563555059256</v>
       </c>
     </row>
     <row r="41">

--- a/output/ship_rule_charter.xlsx
+++ b/output/ship_rule_charter.xlsx
@@ -383,33 +383,33 @@
         </is>
       </c>
       <c r="B1" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>36month charter, 2 ships</t>
         </is>
       </c>
       <c r="I1" s="0" t="n">
-        <v>0.1945983865522247</v>
+        <v>0.1110535192194497</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>0.1097037938130009</v>
+        <v>0.09471664861170863</v>
       </c>
     </row>
     <row r="2">
@@ -419,33 +419,33 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>36month charter, 2 ships</t>
         </is>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0.1945983865522247</v>
+        <v>0.1110535192194497</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.1097037938130009</v>
+        <v>0.09471664861170863</v>
       </c>
     </row>
     <row r="3">
@@ -455,33 +455,33 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>60</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>36month charter, 2 ships</t>
         </is>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.1945983865522247</v>
+        <v>0.1110535192194497</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.1097037938130009</v>
+        <v>0.09471664861170863</v>
       </c>
     </row>
     <row r="4">
@@ -491,33 +491,33 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>36month charter, 4 ships</t>
         </is>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.1945983865522247</v>
+        <v>-0.07413440137386836</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.1097037938130009</v>
+        <v>0.08081411992475478</v>
       </c>
     </row>
     <row r="5">
@@ -527,33 +527,33 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>36month charter, 4 ships</t>
         </is>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.1931194592613442</v>
+        <v>-0.07413440137386836</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.1087320144538868</v>
+        <v>0.08081411992475478</v>
       </c>
     </row>
     <row r="6">
@@ -563,33 +563,33 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 15 ships</t>
+          <t>6month charter, 15 ships</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.1606140123388825</v>
+        <v>-0.1193614173823362</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.1040678916100266</v>
+        <v>0.08405506722272815</v>
       </c>
     </row>
     <row r="7">
@@ -599,33 +599,33 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>150</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 15 ships</t>
+          <t>12month charter, 25 ships</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.1606140123388825</v>
+        <v>-0.2500398673130042</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.1040678916100266</v>
+        <v>0.04424941480397088</v>
       </c>
     </row>
     <row r="8">
@@ -638,30 +638,30 @@
         <v>60</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 15 ships</t>
+          <t>36month charter, 4 ships</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.1606140123388825</v>
+        <v>-0.2507070236846359</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.1040678916100266</v>
+        <v>0.04459498588584898</v>
       </c>
     </row>
     <row r="9">
@@ -671,33 +671,33 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 10 ships</t>
+          <t>36month charter, 4 ships</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.1210309455079945</v>
+        <v>-0.2507070236846359</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.1260472015917866</v>
+        <v>0.04459498588584898</v>
       </c>
     </row>
     <row r="10">
@@ -710,30 +710,30 @@
         <v>60</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 5 ships</t>
+          <t>36month charter, 4 ships</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.1042576092661913</v>
+        <v>-0.2507070236846359</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.1123497934505275</v>
+        <v>0.04459498588584898</v>
       </c>
     </row>
     <row r="11">
@@ -743,33 +743,33 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>3month charter, 5 ships</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.06727993555947658</v>
+        <v>-0.2653780186356997</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.1139038462663897</v>
+        <v>0.05264426309571655</v>
       </c>
     </row>
     <row r="12">
@@ -779,33 +779,33 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>3month charter, 5 ships</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.06727993555947658</v>
+        <v>-0.2653780186356997</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.1139038462663897</v>
+        <v>0.05264426309571655</v>
       </c>
     </row>
     <row r="13">
@@ -815,33 +815,33 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>100</v>
-      </c>
       <c r="G13" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>3month charter, 3 ships</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.06727993555947658</v>
+        <v>-0.3158717603812074</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.1139038462663897</v>
+        <v>0.09040928949888978</v>
       </c>
     </row>
     <row r="14">
@@ -851,33 +851,33 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="G14" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 15 ships</t>
+          <t>3month charter, 3 ships</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>-0.07030626888575287</v>
+        <v>-0.3158717603812074</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.09961441141170109</v>
+        <v>0.09040928949888978</v>
       </c>
     </row>
     <row r="15">
@@ -887,33 +887,33 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="G15" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>3month charter, 15 ships</t>
+          <t>3month charter, 3 ships</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>-0.07030626888575287</v>
+        <v>-0.3158717603812074</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.09961441141170109</v>
+        <v>0.09040928949888978</v>
       </c>
     </row>
     <row r="16">
@@ -923,33 +923,33 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>6month charter, 4 ships</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>-0.2364511146898293</v>
+        <v>-0.3194571319169012</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.03759820521992559</v>
+        <v>0.08975079045353825</v>
       </c>
     </row>
     <row r="17">
@@ -959,33 +959,33 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>3month charter, 5 ships</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>-0.2697979966506988</v>
+        <v>-0.3195060874799664</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.05523805818984528</v>
+        <v>0.08978968118346921</v>
       </c>
     </row>
     <row r="18">
@@ -995,33 +995,33 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>-0.2697979966506988</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>0.05523805818984528</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="19">
@@ -1040,24 +1040,24 @@
         <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>80</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>-0.2812653288942285</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.06233185322122759</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="20">
@@ -1067,33 +1067,33 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C20" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="G20" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
-        <v>-0.2812653288942285</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.06233185322122759</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="21">
@@ -1103,33 +1103,33 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C21" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>80</v>
-      </c>
       <c r="G21" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>-0.2812653288942285</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.06233185322122759</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="22">
@@ -1139,33 +1139,33 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H22" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>-0.2812653288942285</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.06233185322122759</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="23">
@@ -1175,33 +1175,33 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C23" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>900</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="H23" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>-0.2812653288942285</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.06233185322122759</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="24">
@@ -1220,24 +1220,24 @@
         <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>80</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="H24" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 10 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>-0.2812653288942285</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>0.06233185322122759</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="25">
@@ -1247,33 +1247,33 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>-0.2963576791362938</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>0.07246981310391497</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="26">
@@ -1283,33 +1283,33 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>-0.2963576791362938</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.07246981310391497</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="27">
@@ -1319,33 +1319,33 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>90</v>
-      </c>
       <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="F27" s="0" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H27" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>-0.2963576791362938</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.07246981310391497</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="28">
@@ -1355,33 +1355,33 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F28" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" s="0" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>-0.2963576791362938</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.07246981310391497</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="29">
@@ -1391,33 +1391,33 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H29" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I29" s="0" t="n">
-        <v>-0.3003016309244051</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.07526923393916639</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="30">
@@ -1427,33 +1427,33 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>90</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="H30" s="0" t="inlineStr">
         <is>
-          <t>6month charter, 100 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I30" s="0" t="n">
-        <v>-0.3003016309244051</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.07526923393916639</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="31">
@@ -1463,33 +1463,33 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H31" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I31" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="32">
@@ -1499,33 +1499,33 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H32" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I32" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="33">
@@ -1535,33 +1535,33 @@
         </is>
       </c>
       <c r="B33" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>150</v>
-      </c>
       <c r="H33" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I33" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="34">
@@ -1571,33 +1571,33 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H34" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I34" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="35">
@@ -1607,33 +1607,33 @@
         </is>
       </c>
       <c r="B35" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H35" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>6month charter, 100 ships</t>
         </is>
       </c>
       <c r="I35" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.4585047099065456</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.05090856287397438</v>
       </c>
     </row>
     <row r="36">
@@ -1643,33 +1643,33 @@
         </is>
       </c>
       <c r="B36" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H36" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>6month charter, 100 ships</t>
         </is>
       </c>
       <c r="I36" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.4585047099065456</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.05090856287397438</v>
       </c>
     </row>
     <row r="37">
@@ -1679,33 +1679,33 @@
         </is>
       </c>
       <c r="B37" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H37" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>6month charter, 100 ships</t>
         </is>
       </c>
       <c r="I37" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.4585047099065456</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.05090856287397438</v>
       </c>
     </row>
     <row r="38">
@@ -1715,33 +1715,33 @@
         </is>
       </c>
       <c r="B38" s="0" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H38" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>6month charter, 100 ships</t>
         </is>
       </c>
       <c r="I38" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.4585047099065456</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.05090856287397438</v>
       </c>
     </row>
     <row r="39">
@@ -1751,33 +1751,33 @@
         </is>
       </c>
       <c r="B39" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H39" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I39" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="40">
@@ -1787,33 +1787,33 @@
         </is>
       </c>
       <c r="B40" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I40" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="41">
@@ -1823,33 +1823,33 @@
         </is>
       </c>
       <c r="B41" s="0" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>NOT ADAPTED</t>
         </is>
       </c>
       <c r="I41" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.3195876800850752</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.08985452037021779</v>
       </c>
     </row>
     <row r="42">
@@ -1859,33 +1859,33 @@
         </is>
       </c>
       <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>70</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="H42" s="0" t="inlineStr">
         <is>
-          <t>12month charter, 5 ships</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="I42" s="0" t="n">
-        <v>-0.3106916244054833</v>
+        <v>-0.4655651795425902</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.08294192066626968</v>
+        <v>0.03178222300504591</v>
       </c>
     </row>
     <row r="43">
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="B43" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H43" s="0" t="inlineStr">
         <is>
@@ -1931,19 +1931,19 @@
         </is>
       </c>
       <c r="B44" s="0" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>160</v>
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="B45" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H45" s="0" t="inlineStr">
         <is>
@@ -2006,19 +2006,19 @@
         <v>90</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H46" s="0" t="inlineStr">
         <is>
@@ -2042,19 +2042,19 @@
         <v>90</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H47" s="0" t="inlineStr">
         <is>
@@ -2075,22 +2075,22 @@
         </is>
       </c>
       <c r="B48" s="0" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H48" s="0" t="inlineStr">
         <is>
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="I48" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2111,19 +2111,19 @@
         </is>
       </c>
       <c r="B49" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>160</v>
@@ -2134,10 +2134,10 @@
         </is>
       </c>
       <c r="I49" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2147,22 +2147,22 @@
         </is>
       </c>
       <c r="B50" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>1400</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H50" s="0" t="inlineStr">
         <is>
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="I50" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="B51" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H51" s="0" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="I51" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2219,22 +2219,22 @@
         </is>
       </c>
       <c r="B52" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H52" s="0" t="inlineStr">
         <is>
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="I52" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2255,22 +2255,22 @@
         </is>
       </c>
       <c r="B53" s="0" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H53" s="0" t="inlineStr">
         <is>
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="I53" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2291,22 +2291,22 @@
         </is>
       </c>
       <c r="B54" s="0" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H54" s="0" t="inlineStr">
         <is>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="I54" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2327,22 +2327,22 @@
         </is>
       </c>
       <c r="B55" s="0" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H55" s="0" t="inlineStr">
         <is>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="I55" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2363,22 +2363,22 @@
         </is>
       </c>
       <c r="B56" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
@@ -2386,10 +2386,10 @@
         </is>
       </c>
       <c r="I56" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2399,22 +2399,22 @@
         </is>
       </c>
       <c r="B57" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C57" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="D57" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="H57" s="0" t="inlineStr">
         <is>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="I57" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2435,33 +2435,33 @@
         </is>
       </c>
       <c r="B58" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H58" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="I58" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.3799236017326246</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2471,33 +2471,33 @@
         </is>
       </c>
       <c r="B59" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>500</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="H59" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>36month charter, 100 ships</t>
         </is>
       </c>
       <c r="I59" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.3799236017326246</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2507,22 +2507,22 @@
         </is>
       </c>
       <c r="B60" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H60" s="0" t="inlineStr">
         <is>
@@ -2530,10 +2530,10 @@
         </is>
       </c>
       <c r="I60" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2543,22 +2543,22 @@
         </is>
       </c>
       <c r="B61" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>110</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H61" s="0" t="inlineStr">
         <is>
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="I61" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2579,19 +2579,19 @@
         </is>
       </c>
       <c r="B62" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>150</v>
@@ -2602,10 +2602,10 @@
         </is>
       </c>
       <c r="I62" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2615,22 +2615,22 @@
         </is>
       </c>
       <c r="B63" s="0" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>80</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H63" s="0" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="I63" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2651,22 +2651,22 @@
         </is>
       </c>
       <c r="B64" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="H64" s="0" t="inlineStr">
         <is>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="I64" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2687,22 +2687,22 @@
         </is>
       </c>
       <c r="B65" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H65" s="0" t="inlineStr">
         <is>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="I65" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2723,33 +2723,33 @@
         </is>
       </c>
       <c r="B66" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
-          <t>NOT ADAPTED</t>
+          <t>3month charter, 0 ships</t>
         </is>
       </c>
       <c r="I66" s="0" t="n">
-        <v>-0.3195876800850752</v>
+        <v>-0.2486559791615969</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.08985452037021779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
